--- a/1. Project management/12. Daily report/tong hop/sprint 2/AS_PM_DailyMeeting10-4.xlsx
+++ b/1. Project management/12. Daily report/tong hop/sprint 2/AS_PM_DailyMeeting10-4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="47">
   <si>
     <t>Chau Le</t>
   </si>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>Report date: 10/4/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quản trị người dùng</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>web service- gửi index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cấu hình gửi mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement - Điểu chỉnh hiển thị các items trong danh sách </t>
+  </si>
+  <si>
+    <t>manage test</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Implement  - Tìm kiếm câu hỏi trên công cụ hiển thị</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1162,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,66 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3437,16 +3461,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3461,10 +3485,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -3476,10 +3500,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3500,17 +3524,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3555,10 +3579,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3574,8 +3598,8 @@
       <c r="F10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3589,8 +3613,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3647,19 +3671,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3668,21 +3692,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3694,8 +3718,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3707,8 +3731,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3720,8 +3744,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3757,44 +3781,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3824,19 +3848,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3845,13 +3869,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3882,41 +3906,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3967,12 +3991,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -3986,15 +4013,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="164" priority="22" stopIfTrue="1" operator="equal">
@@ -4111,7 +4135,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4759,16 +4783,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4783,10 +4807,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4798,10 +4822,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4822,17 +4846,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4877,10 +4901,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4889,15 +4913,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41824</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
       <c r="F10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18" t="s">
         <v>1</v>
       </c>
@@ -4906,15 +4938,23 @@
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="16">
+        <v>41824</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41825</v>
+      </c>
       <c r="F11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18" t="s">
         <v>1</v>
       </c>
@@ -4923,14 +4963,26 @@
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="16">
+        <v>41855</v>
+      </c>
+      <c r="E12" s="16">
+        <v>41855</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
@@ -4973,19 +5025,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -4997,10 +5049,10 @@
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5033,8 +5085,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -5046,8 +5098,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -5083,44 +5135,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5150,19 +5202,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5171,13 +5223,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5208,41 +5260,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5293,12 +5345,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5309,15 +5364,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="140" priority="31" stopIfTrue="1" operator="equal">
@@ -5341,24 +5393,24 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="134" priority="22" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="133" priority="23" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="132" priority="24" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="131" priority="25" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="130" priority="26" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="129" priority="27" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
@@ -5412,7 +5464,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
+  <conditionalFormatting sqref="I10:I12">
     <cfRule type="containsText" dxfId="113" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
       <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
     </cfRule>
@@ -5452,13 +5504,13 @@
           <x14:formula1>
             <xm:f>'Team member'!$B$1:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K19 I12:I13</xm:sqref>
+          <xm:sqref>K19 I13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'[1]Team member'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I10:I11</xm:sqref>
+          <xm:sqref>I10:I12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6119,16 +6171,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6143,10 +6195,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -6158,10 +6210,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6182,17 +6234,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6237,10 +6289,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6254,8 +6306,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6267,8 +6319,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6325,19 +6377,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6346,21 +6398,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6372,8 +6424,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6385,8 +6437,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6398,8 +6450,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6435,44 +6487,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6502,19 +6554,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6523,13 +6575,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6560,41 +6612,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6645,12 +6697,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6664,15 +6719,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
@@ -6789,7 +6841,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7437,16 +7489,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7461,10 +7513,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -7476,10 +7528,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7500,17 +7552,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7555,10 +7607,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7567,14 +7619,26 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41824</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41825</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -7585,8 +7649,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7643,19 +7707,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7664,21 +7728,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7690,8 +7754,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7703,8 +7767,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7716,8 +7780,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7753,44 +7817,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7820,19 +7884,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7841,13 +7905,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7878,41 +7942,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7963,12 +8027,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -7982,15 +8049,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
@@ -8106,7 +8170,1354 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="64" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="64"/>
+    <col min="8" max="8" width="41.28515625" style="64" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="64" customWidth="1"/>
+    <col min="10" max="256" width="9.140625" style="64"/>
+    <col min="257" max="257" width="14.140625" style="64" customWidth="1"/>
+    <col min="258" max="258" width="51.7109375" style="64" customWidth="1"/>
+    <col min="259" max="259" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="14.42578125" style="64" customWidth="1"/>
+    <col min="261" max="261" width="17.85546875" style="64" customWidth="1"/>
+    <col min="262" max="262" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="9.140625" style="64"/>
+    <col min="264" max="264" width="41.28515625" style="64" customWidth="1"/>
+    <col min="265" max="265" width="24.5703125" style="64" customWidth="1"/>
+    <col min="266" max="512" width="9.140625" style="64"/>
+    <col min="513" max="513" width="14.140625" style="64" customWidth="1"/>
+    <col min="514" max="514" width="51.7109375" style="64" customWidth="1"/>
+    <col min="515" max="515" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="14.42578125" style="64" customWidth="1"/>
+    <col min="517" max="517" width="17.85546875" style="64" customWidth="1"/>
+    <col min="518" max="518" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="9.140625" style="64"/>
+    <col min="520" max="520" width="41.28515625" style="64" customWidth="1"/>
+    <col min="521" max="521" width="24.5703125" style="64" customWidth="1"/>
+    <col min="522" max="768" width="9.140625" style="64"/>
+    <col min="769" max="769" width="14.140625" style="64" customWidth="1"/>
+    <col min="770" max="770" width="51.7109375" style="64" customWidth="1"/>
+    <col min="771" max="771" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="14.42578125" style="64" customWidth="1"/>
+    <col min="773" max="773" width="17.85546875" style="64" customWidth="1"/>
+    <col min="774" max="774" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="9.140625" style="64"/>
+    <col min="776" max="776" width="41.28515625" style="64" customWidth="1"/>
+    <col min="777" max="777" width="24.5703125" style="64" customWidth="1"/>
+    <col min="778" max="1024" width="9.140625" style="64"/>
+    <col min="1025" max="1025" width="14.140625" style="64" customWidth="1"/>
+    <col min="1026" max="1026" width="51.7109375" style="64" customWidth="1"/>
+    <col min="1027" max="1027" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="14.42578125" style="64" customWidth="1"/>
+    <col min="1029" max="1029" width="17.85546875" style="64" customWidth="1"/>
+    <col min="1030" max="1030" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="9.140625" style="64"/>
+    <col min="1032" max="1032" width="41.28515625" style="64" customWidth="1"/>
+    <col min="1033" max="1033" width="24.5703125" style="64" customWidth="1"/>
+    <col min="1034" max="1280" width="9.140625" style="64"/>
+    <col min="1281" max="1281" width="14.140625" style="64" customWidth="1"/>
+    <col min="1282" max="1282" width="51.7109375" style="64" customWidth="1"/>
+    <col min="1283" max="1283" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="14.42578125" style="64" customWidth="1"/>
+    <col min="1285" max="1285" width="17.85546875" style="64" customWidth="1"/>
+    <col min="1286" max="1286" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="9.140625" style="64"/>
+    <col min="1288" max="1288" width="41.28515625" style="64" customWidth="1"/>
+    <col min="1289" max="1289" width="24.5703125" style="64" customWidth="1"/>
+    <col min="1290" max="1536" width="9.140625" style="64"/>
+    <col min="1537" max="1537" width="14.140625" style="64" customWidth="1"/>
+    <col min="1538" max="1538" width="51.7109375" style="64" customWidth="1"/>
+    <col min="1539" max="1539" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="14.42578125" style="64" customWidth="1"/>
+    <col min="1541" max="1541" width="17.85546875" style="64" customWidth="1"/>
+    <col min="1542" max="1542" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="9.140625" style="64"/>
+    <col min="1544" max="1544" width="41.28515625" style="64" customWidth="1"/>
+    <col min="1545" max="1545" width="24.5703125" style="64" customWidth="1"/>
+    <col min="1546" max="1792" width="9.140625" style="64"/>
+    <col min="1793" max="1793" width="14.140625" style="64" customWidth="1"/>
+    <col min="1794" max="1794" width="51.7109375" style="64" customWidth="1"/>
+    <col min="1795" max="1795" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="14.42578125" style="64" customWidth="1"/>
+    <col min="1797" max="1797" width="17.85546875" style="64" customWidth="1"/>
+    <col min="1798" max="1798" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="9.140625" style="64"/>
+    <col min="1800" max="1800" width="41.28515625" style="64" customWidth="1"/>
+    <col min="1801" max="1801" width="24.5703125" style="64" customWidth="1"/>
+    <col min="1802" max="2048" width="9.140625" style="64"/>
+    <col min="2049" max="2049" width="14.140625" style="64" customWidth="1"/>
+    <col min="2050" max="2050" width="51.7109375" style="64" customWidth="1"/>
+    <col min="2051" max="2051" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="14.42578125" style="64" customWidth="1"/>
+    <col min="2053" max="2053" width="17.85546875" style="64" customWidth="1"/>
+    <col min="2054" max="2054" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="9.140625" style="64"/>
+    <col min="2056" max="2056" width="41.28515625" style="64" customWidth="1"/>
+    <col min="2057" max="2057" width="24.5703125" style="64" customWidth="1"/>
+    <col min="2058" max="2304" width="9.140625" style="64"/>
+    <col min="2305" max="2305" width="14.140625" style="64" customWidth="1"/>
+    <col min="2306" max="2306" width="51.7109375" style="64" customWidth="1"/>
+    <col min="2307" max="2307" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="14.42578125" style="64" customWidth="1"/>
+    <col min="2309" max="2309" width="17.85546875" style="64" customWidth="1"/>
+    <col min="2310" max="2310" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="9.140625" style="64"/>
+    <col min="2312" max="2312" width="41.28515625" style="64" customWidth="1"/>
+    <col min="2313" max="2313" width="24.5703125" style="64" customWidth="1"/>
+    <col min="2314" max="2560" width="9.140625" style="64"/>
+    <col min="2561" max="2561" width="14.140625" style="64" customWidth="1"/>
+    <col min="2562" max="2562" width="51.7109375" style="64" customWidth="1"/>
+    <col min="2563" max="2563" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="14.42578125" style="64" customWidth="1"/>
+    <col min="2565" max="2565" width="17.85546875" style="64" customWidth="1"/>
+    <col min="2566" max="2566" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="9.140625" style="64"/>
+    <col min="2568" max="2568" width="41.28515625" style="64" customWidth="1"/>
+    <col min="2569" max="2569" width="24.5703125" style="64" customWidth="1"/>
+    <col min="2570" max="2816" width="9.140625" style="64"/>
+    <col min="2817" max="2817" width="14.140625" style="64" customWidth="1"/>
+    <col min="2818" max="2818" width="51.7109375" style="64" customWidth="1"/>
+    <col min="2819" max="2819" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="14.42578125" style="64" customWidth="1"/>
+    <col min="2821" max="2821" width="17.85546875" style="64" customWidth="1"/>
+    <col min="2822" max="2822" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="9.140625" style="64"/>
+    <col min="2824" max="2824" width="41.28515625" style="64" customWidth="1"/>
+    <col min="2825" max="2825" width="24.5703125" style="64" customWidth="1"/>
+    <col min="2826" max="3072" width="9.140625" style="64"/>
+    <col min="3073" max="3073" width="14.140625" style="64" customWidth="1"/>
+    <col min="3074" max="3074" width="51.7109375" style="64" customWidth="1"/>
+    <col min="3075" max="3075" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="14.42578125" style="64" customWidth="1"/>
+    <col min="3077" max="3077" width="17.85546875" style="64" customWidth="1"/>
+    <col min="3078" max="3078" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="9.140625" style="64"/>
+    <col min="3080" max="3080" width="41.28515625" style="64" customWidth="1"/>
+    <col min="3081" max="3081" width="24.5703125" style="64" customWidth="1"/>
+    <col min="3082" max="3328" width="9.140625" style="64"/>
+    <col min="3329" max="3329" width="14.140625" style="64" customWidth="1"/>
+    <col min="3330" max="3330" width="51.7109375" style="64" customWidth="1"/>
+    <col min="3331" max="3331" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="14.42578125" style="64" customWidth="1"/>
+    <col min="3333" max="3333" width="17.85546875" style="64" customWidth="1"/>
+    <col min="3334" max="3334" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="9.140625" style="64"/>
+    <col min="3336" max="3336" width="41.28515625" style="64" customWidth="1"/>
+    <col min="3337" max="3337" width="24.5703125" style="64" customWidth="1"/>
+    <col min="3338" max="3584" width="9.140625" style="64"/>
+    <col min="3585" max="3585" width="14.140625" style="64" customWidth="1"/>
+    <col min="3586" max="3586" width="51.7109375" style="64" customWidth="1"/>
+    <col min="3587" max="3587" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="14.42578125" style="64" customWidth="1"/>
+    <col min="3589" max="3589" width="17.85546875" style="64" customWidth="1"/>
+    <col min="3590" max="3590" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="9.140625" style="64"/>
+    <col min="3592" max="3592" width="41.28515625" style="64" customWidth="1"/>
+    <col min="3593" max="3593" width="24.5703125" style="64" customWidth="1"/>
+    <col min="3594" max="3840" width="9.140625" style="64"/>
+    <col min="3841" max="3841" width="14.140625" style="64" customWidth="1"/>
+    <col min="3842" max="3842" width="51.7109375" style="64" customWidth="1"/>
+    <col min="3843" max="3843" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="14.42578125" style="64" customWidth="1"/>
+    <col min="3845" max="3845" width="17.85546875" style="64" customWidth="1"/>
+    <col min="3846" max="3846" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="9.140625" style="64"/>
+    <col min="3848" max="3848" width="41.28515625" style="64" customWidth="1"/>
+    <col min="3849" max="3849" width="24.5703125" style="64" customWidth="1"/>
+    <col min="3850" max="4096" width="9.140625" style="64"/>
+    <col min="4097" max="4097" width="14.140625" style="64" customWidth="1"/>
+    <col min="4098" max="4098" width="51.7109375" style="64" customWidth="1"/>
+    <col min="4099" max="4099" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="14.42578125" style="64" customWidth="1"/>
+    <col min="4101" max="4101" width="17.85546875" style="64" customWidth="1"/>
+    <col min="4102" max="4102" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="9.140625" style="64"/>
+    <col min="4104" max="4104" width="41.28515625" style="64" customWidth="1"/>
+    <col min="4105" max="4105" width="24.5703125" style="64" customWidth="1"/>
+    <col min="4106" max="4352" width="9.140625" style="64"/>
+    <col min="4353" max="4353" width="14.140625" style="64" customWidth="1"/>
+    <col min="4354" max="4354" width="51.7109375" style="64" customWidth="1"/>
+    <col min="4355" max="4355" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="14.42578125" style="64" customWidth="1"/>
+    <col min="4357" max="4357" width="17.85546875" style="64" customWidth="1"/>
+    <col min="4358" max="4358" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="9.140625" style="64"/>
+    <col min="4360" max="4360" width="41.28515625" style="64" customWidth="1"/>
+    <col min="4361" max="4361" width="24.5703125" style="64" customWidth="1"/>
+    <col min="4362" max="4608" width="9.140625" style="64"/>
+    <col min="4609" max="4609" width="14.140625" style="64" customWidth="1"/>
+    <col min="4610" max="4610" width="51.7109375" style="64" customWidth="1"/>
+    <col min="4611" max="4611" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="14.42578125" style="64" customWidth="1"/>
+    <col min="4613" max="4613" width="17.85546875" style="64" customWidth="1"/>
+    <col min="4614" max="4614" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="9.140625" style="64"/>
+    <col min="4616" max="4616" width="41.28515625" style="64" customWidth="1"/>
+    <col min="4617" max="4617" width="24.5703125" style="64" customWidth="1"/>
+    <col min="4618" max="4864" width="9.140625" style="64"/>
+    <col min="4865" max="4865" width="14.140625" style="64" customWidth="1"/>
+    <col min="4866" max="4866" width="51.7109375" style="64" customWidth="1"/>
+    <col min="4867" max="4867" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="14.42578125" style="64" customWidth="1"/>
+    <col min="4869" max="4869" width="17.85546875" style="64" customWidth="1"/>
+    <col min="4870" max="4870" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="9.140625" style="64"/>
+    <col min="4872" max="4872" width="41.28515625" style="64" customWidth="1"/>
+    <col min="4873" max="4873" width="24.5703125" style="64" customWidth="1"/>
+    <col min="4874" max="5120" width="9.140625" style="64"/>
+    <col min="5121" max="5121" width="14.140625" style="64" customWidth="1"/>
+    <col min="5122" max="5122" width="51.7109375" style="64" customWidth="1"/>
+    <col min="5123" max="5123" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="14.42578125" style="64" customWidth="1"/>
+    <col min="5125" max="5125" width="17.85546875" style="64" customWidth="1"/>
+    <col min="5126" max="5126" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="9.140625" style="64"/>
+    <col min="5128" max="5128" width="41.28515625" style="64" customWidth="1"/>
+    <col min="5129" max="5129" width="24.5703125" style="64" customWidth="1"/>
+    <col min="5130" max="5376" width="9.140625" style="64"/>
+    <col min="5377" max="5377" width="14.140625" style="64" customWidth="1"/>
+    <col min="5378" max="5378" width="51.7109375" style="64" customWidth="1"/>
+    <col min="5379" max="5379" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="14.42578125" style="64" customWidth="1"/>
+    <col min="5381" max="5381" width="17.85546875" style="64" customWidth="1"/>
+    <col min="5382" max="5382" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="9.140625" style="64"/>
+    <col min="5384" max="5384" width="41.28515625" style="64" customWidth="1"/>
+    <col min="5385" max="5385" width="24.5703125" style="64" customWidth="1"/>
+    <col min="5386" max="5632" width="9.140625" style="64"/>
+    <col min="5633" max="5633" width="14.140625" style="64" customWidth="1"/>
+    <col min="5634" max="5634" width="51.7109375" style="64" customWidth="1"/>
+    <col min="5635" max="5635" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="14.42578125" style="64" customWidth="1"/>
+    <col min="5637" max="5637" width="17.85546875" style="64" customWidth="1"/>
+    <col min="5638" max="5638" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="9.140625" style="64"/>
+    <col min="5640" max="5640" width="41.28515625" style="64" customWidth="1"/>
+    <col min="5641" max="5641" width="24.5703125" style="64" customWidth="1"/>
+    <col min="5642" max="5888" width="9.140625" style="64"/>
+    <col min="5889" max="5889" width="14.140625" style="64" customWidth="1"/>
+    <col min="5890" max="5890" width="51.7109375" style="64" customWidth="1"/>
+    <col min="5891" max="5891" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="14.42578125" style="64" customWidth="1"/>
+    <col min="5893" max="5893" width="17.85546875" style="64" customWidth="1"/>
+    <col min="5894" max="5894" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="9.140625" style="64"/>
+    <col min="5896" max="5896" width="41.28515625" style="64" customWidth="1"/>
+    <col min="5897" max="5897" width="24.5703125" style="64" customWidth="1"/>
+    <col min="5898" max="6144" width="9.140625" style="64"/>
+    <col min="6145" max="6145" width="14.140625" style="64" customWidth="1"/>
+    <col min="6146" max="6146" width="51.7109375" style="64" customWidth="1"/>
+    <col min="6147" max="6147" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="14.42578125" style="64" customWidth="1"/>
+    <col min="6149" max="6149" width="17.85546875" style="64" customWidth="1"/>
+    <col min="6150" max="6150" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="9.140625" style="64"/>
+    <col min="6152" max="6152" width="41.28515625" style="64" customWidth="1"/>
+    <col min="6153" max="6153" width="24.5703125" style="64" customWidth="1"/>
+    <col min="6154" max="6400" width="9.140625" style="64"/>
+    <col min="6401" max="6401" width="14.140625" style="64" customWidth="1"/>
+    <col min="6402" max="6402" width="51.7109375" style="64" customWidth="1"/>
+    <col min="6403" max="6403" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="14.42578125" style="64" customWidth="1"/>
+    <col min="6405" max="6405" width="17.85546875" style="64" customWidth="1"/>
+    <col min="6406" max="6406" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="9.140625" style="64"/>
+    <col min="6408" max="6408" width="41.28515625" style="64" customWidth="1"/>
+    <col min="6409" max="6409" width="24.5703125" style="64" customWidth="1"/>
+    <col min="6410" max="6656" width="9.140625" style="64"/>
+    <col min="6657" max="6657" width="14.140625" style="64" customWidth="1"/>
+    <col min="6658" max="6658" width="51.7109375" style="64" customWidth="1"/>
+    <col min="6659" max="6659" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="14.42578125" style="64" customWidth="1"/>
+    <col min="6661" max="6661" width="17.85546875" style="64" customWidth="1"/>
+    <col min="6662" max="6662" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="9.140625" style="64"/>
+    <col min="6664" max="6664" width="41.28515625" style="64" customWidth="1"/>
+    <col min="6665" max="6665" width="24.5703125" style="64" customWidth="1"/>
+    <col min="6666" max="6912" width="9.140625" style="64"/>
+    <col min="6913" max="6913" width="14.140625" style="64" customWidth="1"/>
+    <col min="6914" max="6914" width="51.7109375" style="64" customWidth="1"/>
+    <col min="6915" max="6915" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="14.42578125" style="64" customWidth="1"/>
+    <col min="6917" max="6917" width="17.85546875" style="64" customWidth="1"/>
+    <col min="6918" max="6918" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="9.140625" style="64"/>
+    <col min="6920" max="6920" width="41.28515625" style="64" customWidth="1"/>
+    <col min="6921" max="6921" width="24.5703125" style="64" customWidth="1"/>
+    <col min="6922" max="7168" width="9.140625" style="64"/>
+    <col min="7169" max="7169" width="14.140625" style="64" customWidth="1"/>
+    <col min="7170" max="7170" width="51.7109375" style="64" customWidth="1"/>
+    <col min="7171" max="7171" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="14.42578125" style="64" customWidth="1"/>
+    <col min="7173" max="7173" width="17.85546875" style="64" customWidth="1"/>
+    <col min="7174" max="7174" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="9.140625" style="64"/>
+    <col min="7176" max="7176" width="41.28515625" style="64" customWidth="1"/>
+    <col min="7177" max="7177" width="24.5703125" style="64" customWidth="1"/>
+    <col min="7178" max="7424" width="9.140625" style="64"/>
+    <col min="7425" max="7425" width="14.140625" style="64" customWidth="1"/>
+    <col min="7426" max="7426" width="51.7109375" style="64" customWidth="1"/>
+    <col min="7427" max="7427" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="14.42578125" style="64" customWidth="1"/>
+    <col min="7429" max="7429" width="17.85546875" style="64" customWidth="1"/>
+    <col min="7430" max="7430" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="9.140625" style="64"/>
+    <col min="7432" max="7432" width="41.28515625" style="64" customWidth="1"/>
+    <col min="7433" max="7433" width="24.5703125" style="64" customWidth="1"/>
+    <col min="7434" max="7680" width="9.140625" style="64"/>
+    <col min="7681" max="7681" width="14.140625" style="64" customWidth="1"/>
+    <col min="7682" max="7682" width="51.7109375" style="64" customWidth="1"/>
+    <col min="7683" max="7683" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="14.42578125" style="64" customWidth="1"/>
+    <col min="7685" max="7685" width="17.85546875" style="64" customWidth="1"/>
+    <col min="7686" max="7686" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="9.140625" style="64"/>
+    <col min="7688" max="7688" width="41.28515625" style="64" customWidth="1"/>
+    <col min="7689" max="7689" width="24.5703125" style="64" customWidth="1"/>
+    <col min="7690" max="7936" width="9.140625" style="64"/>
+    <col min="7937" max="7937" width="14.140625" style="64" customWidth="1"/>
+    <col min="7938" max="7938" width="51.7109375" style="64" customWidth="1"/>
+    <col min="7939" max="7939" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="14.42578125" style="64" customWidth="1"/>
+    <col min="7941" max="7941" width="17.85546875" style="64" customWidth="1"/>
+    <col min="7942" max="7942" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="9.140625" style="64"/>
+    <col min="7944" max="7944" width="41.28515625" style="64" customWidth="1"/>
+    <col min="7945" max="7945" width="24.5703125" style="64" customWidth="1"/>
+    <col min="7946" max="8192" width="9.140625" style="64"/>
+    <col min="8193" max="8193" width="14.140625" style="64" customWidth="1"/>
+    <col min="8194" max="8194" width="51.7109375" style="64" customWidth="1"/>
+    <col min="8195" max="8195" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="14.42578125" style="64" customWidth="1"/>
+    <col min="8197" max="8197" width="17.85546875" style="64" customWidth="1"/>
+    <col min="8198" max="8198" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="9.140625" style="64"/>
+    <col min="8200" max="8200" width="41.28515625" style="64" customWidth="1"/>
+    <col min="8201" max="8201" width="24.5703125" style="64" customWidth="1"/>
+    <col min="8202" max="8448" width="9.140625" style="64"/>
+    <col min="8449" max="8449" width="14.140625" style="64" customWidth="1"/>
+    <col min="8450" max="8450" width="51.7109375" style="64" customWidth="1"/>
+    <col min="8451" max="8451" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="14.42578125" style="64" customWidth="1"/>
+    <col min="8453" max="8453" width="17.85546875" style="64" customWidth="1"/>
+    <col min="8454" max="8454" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="9.140625" style="64"/>
+    <col min="8456" max="8456" width="41.28515625" style="64" customWidth="1"/>
+    <col min="8457" max="8457" width="24.5703125" style="64" customWidth="1"/>
+    <col min="8458" max="8704" width="9.140625" style="64"/>
+    <col min="8705" max="8705" width="14.140625" style="64" customWidth="1"/>
+    <col min="8706" max="8706" width="51.7109375" style="64" customWidth="1"/>
+    <col min="8707" max="8707" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="14.42578125" style="64" customWidth="1"/>
+    <col min="8709" max="8709" width="17.85546875" style="64" customWidth="1"/>
+    <col min="8710" max="8710" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="9.140625" style="64"/>
+    <col min="8712" max="8712" width="41.28515625" style="64" customWidth="1"/>
+    <col min="8713" max="8713" width="24.5703125" style="64" customWidth="1"/>
+    <col min="8714" max="8960" width="9.140625" style="64"/>
+    <col min="8961" max="8961" width="14.140625" style="64" customWidth="1"/>
+    <col min="8962" max="8962" width="51.7109375" style="64" customWidth="1"/>
+    <col min="8963" max="8963" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="14.42578125" style="64" customWidth="1"/>
+    <col min="8965" max="8965" width="17.85546875" style="64" customWidth="1"/>
+    <col min="8966" max="8966" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="9.140625" style="64"/>
+    <col min="8968" max="8968" width="41.28515625" style="64" customWidth="1"/>
+    <col min="8969" max="8969" width="24.5703125" style="64" customWidth="1"/>
+    <col min="8970" max="9216" width="9.140625" style="64"/>
+    <col min="9217" max="9217" width="14.140625" style="64" customWidth="1"/>
+    <col min="9218" max="9218" width="51.7109375" style="64" customWidth="1"/>
+    <col min="9219" max="9219" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="14.42578125" style="64" customWidth="1"/>
+    <col min="9221" max="9221" width="17.85546875" style="64" customWidth="1"/>
+    <col min="9222" max="9222" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="9.140625" style="64"/>
+    <col min="9224" max="9224" width="41.28515625" style="64" customWidth="1"/>
+    <col min="9225" max="9225" width="24.5703125" style="64" customWidth="1"/>
+    <col min="9226" max="9472" width="9.140625" style="64"/>
+    <col min="9473" max="9473" width="14.140625" style="64" customWidth="1"/>
+    <col min="9474" max="9474" width="51.7109375" style="64" customWidth="1"/>
+    <col min="9475" max="9475" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="14.42578125" style="64" customWidth="1"/>
+    <col min="9477" max="9477" width="17.85546875" style="64" customWidth="1"/>
+    <col min="9478" max="9478" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="9.140625" style="64"/>
+    <col min="9480" max="9480" width="41.28515625" style="64" customWidth="1"/>
+    <col min="9481" max="9481" width="24.5703125" style="64" customWidth="1"/>
+    <col min="9482" max="9728" width="9.140625" style="64"/>
+    <col min="9729" max="9729" width="14.140625" style="64" customWidth="1"/>
+    <col min="9730" max="9730" width="51.7109375" style="64" customWidth="1"/>
+    <col min="9731" max="9731" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="14.42578125" style="64" customWidth="1"/>
+    <col min="9733" max="9733" width="17.85546875" style="64" customWidth="1"/>
+    <col min="9734" max="9734" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="9.140625" style="64"/>
+    <col min="9736" max="9736" width="41.28515625" style="64" customWidth="1"/>
+    <col min="9737" max="9737" width="24.5703125" style="64" customWidth="1"/>
+    <col min="9738" max="9984" width="9.140625" style="64"/>
+    <col min="9985" max="9985" width="14.140625" style="64" customWidth="1"/>
+    <col min="9986" max="9986" width="51.7109375" style="64" customWidth="1"/>
+    <col min="9987" max="9987" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="14.42578125" style="64" customWidth="1"/>
+    <col min="9989" max="9989" width="17.85546875" style="64" customWidth="1"/>
+    <col min="9990" max="9990" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="9.140625" style="64"/>
+    <col min="9992" max="9992" width="41.28515625" style="64" customWidth="1"/>
+    <col min="9993" max="9993" width="24.5703125" style="64" customWidth="1"/>
+    <col min="9994" max="10240" width="9.140625" style="64"/>
+    <col min="10241" max="10241" width="14.140625" style="64" customWidth="1"/>
+    <col min="10242" max="10242" width="51.7109375" style="64" customWidth="1"/>
+    <col min="10243" max="10243" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="14.42578125" style="64" customWidth="1"/>
+    <col min="10245" max="10245" width="17.85546875" style="64" customWidth="1"/>
+    <col min="10246" max="10246" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="9.140625" style="64"/>
+    <col min="10248" max="10248" width="41.28515625" style="64" customWidth="1"/>
+    <col min="10249" max="10249" width="24.5703125" style="64" customWidth="1"/>
+    <col min="10250" max="10496" width="9.140625" style="64"/>
+    <col min="10497" max="10497" width="14.140625" style="64" customWidth="1"/>
+    <col min="10498" max="10498" width="51.7109375" style="64" customWidth="1"/>
+    <col min="10499" max="10499" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="14.42578125" style="64" customWidth="1"/>
+    <col min="10501" max="10501" width="17.85546875" style="64" customWidth="1"/>
+    <col min="10502" max="10502" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="9.140625" style="64"/>
+    <col min="10504" max="10504" width="41.28515625" style="64" customWidth="1"/>
+    <col min="10505" max="10505" width="24.5703125" style="64" customWidth="1"/>
+    <col min="10506" max="10752" width="9.140625" style="64"/>
+    <col min="10753" max="10753" width="14.140625" style="64" customWidth="1"/>
+    <col min="10754" max="10754" width="51.7109375" style="64" customWidth="1"/>
+    <col min="10755" max="10755" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="14.42578125" style="64" customWidth="1"/>
+    <col min="10757" max="10757" width="17.85546875" style="64" customWidth="1"/>
+    <col min="10758" max="10758" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="9.140625" style="64"/>
+    <col min="10760" max="10760" width="41.28515625" style="64" customWidth="1"/>
+    <col min="10761" max="10761" width="24.5703125" style="64" customWidth="1"/>
+    <col min="10762" max="11008" width="9.140625" style="64"/>
+    <col min="11009" max="11009" width="14.140625" style="64" customWidth="1"/>
+    <col min="11010" max="11010" width="51.7109375" style="64" customWidth="1"/>
+    <col min="11011" max="11011" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="14.42578125" style="64" customWidth="1"/>
+    <col min="11013" max="11013" width="17.85546875" style="64" customWidth="1"/>
+    <col min="11014" max="11014" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="9.140625" style="64"/>
+    <col min="11016" max="11016" width="41.28515625" style="64" customWidth="1"/>
+    <col min="11017" max="11017" width="24.5703125" style="64" customWidth="1"/>
+    <col min="11018" max="11264" width="9.140625" style="64"/>
+    <col min="11265" max="11265" width="14.140625" style="64" customWidth="1"/>
+    <col min="11266" max="11266" width="51.7109375" style="64" customWidth="1"/>
+    <col min="11267" max="11267" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="14.42578125" style="64" customWidth="1"/>
+    <col min="11269" max="11269" width="17.85546875" style="64" customWidth="1"/>
+    <col min="11270" max="11270" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="9.140625" style="64"/>
+    <col min="11272" max="11272" width="41.28515625" style="64" customWidth="1"/>
+    <col min="11273" max="11273" width="24.5703125" style="64" customWidth="1"/>
+    <col min="11274" max="11520" width="9.140625" style="64"/>
+    <col min="11521" max="11521" width="14.140625" style="64" customWidth="1"/>
+    <col min="11522" max="11522" width="51.7109375" style="64" customWidth="1"/>
+    <col min="11523" max="11523" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="14.42578125" style="64" customWidth="1"/>
+    <col min="11525" max="11525" width="17.85546875" style="64" customWidth="1"/>
+    <col min="11526" max="11526" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="9.140625" style="64"/>
+    <col min="11528" max="11528" width="41.28515625" style="64" customWidth="1"/>
+    <col min="11529" max="11529" width="24.5703125" style="64" customWidth="1"/>
+    <col min="11530" max="11776" width="9.140625" style="64"/>
+    <col min="11777" max="11777" width="14.140625" style="64" customWidth="1"/>
+    <col min="11778" max="11778" width="51.7109375" style="64" customWidth="1"/>
+    <col min="11779" max="11779" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="14.42578125" style="64" customWidth="1"/>
+    <col min="11781" max="11781" width="17.85546875" style="64" customWidth="1"/>
+    <col min="11782" max="11782" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="9.140625" style="64"/>
+    <col min="11784" max="11784" width="41.28515625" style="64" customWidth="1"/>
+    <col min="11785" max="11785" width="24.5703125" style="64" customWidth="1"/>
+    <col min="11786" max="12032" width="9.140625" style="64"/>
+    <col min="12033" max="12033" width="14.140625" style="64" customWidth="1"/>
+    <col min="12034" max="12034" width="51.7109375" style="64" customWidth="1"/>
+    <col min="12035" max="12035" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="14.42578125" style="64" customWidth="1"/>
+    <col min="12037" max="12037" width="17.85546875" style="64" customWidth="1"/>
+    <col min="12038" max="12038" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="9.140625" style="64"/>
+    <col min="12040" max="12040" width="41.28515625" style="64" customWidth="1"/>
+    <col min="12041" max="12041" width="24.5703125" style="64" customWidth="1"/>
+    <col min="12042" max="12288" width="9.140625" style="64"/>
+    <col min="12289" max="12289" width="14.140625" style="64" customWidth="1"/>
+    <col min="12290" max="12290" width="51.7109375" style="64" customWidth="1"/>
+    <col min="12291" max="12291" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="14.42578125" style="64" customWidth="1"/>
+    <col min="12293" max="12293" width="17.85546875" style="64" customWidth="1"/>
+    <col min="12294" max="12294" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="9.140625" style="64"/>
+    <col min="12296" max="12296" width="41.28515625" style="64" customWidth="1"/>
+    <col min="12297" max="12297" width="24.5703125" style="64" customWidth="1"/>
+    <col min="12298" max="12544" width="9.140625" style="64"/>
+    <col min="12545" max="12545" width="14.140625" style="64" customWidth="1"/>
+    <col min="12546" max="12546" width="51.7109375" style="64" customWidth="1"/>
+    <col min="12547" max="12547" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="14.42578125" style="64" customWidth="1"/>
+    <col min="12549" max="12549" width="17.85546875" style="64" customWidth="1"/>
+    <col min="12550" max="12550" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="9.140625" style="64"/>
+    <col min="12552" max="12552" width="41.28515625" style="64" customWidth="1"/>
+    <col min="12553" max="12553" width="24.5703125" style="64" customWidth="1"/>
+    <col min="12554" max="12800" width="9.140625" style="64"/>
+    <col min="12801" max="12801" width="14.140625" style="64" customWidth="1"/>
+    <col min="12802" max="12802" width="51.7109375" style="64" customWidth="1"/>
+    <col min="12803" max="12803" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="14.42578125" style="64" customWidth="1"/>
+    <col min="12805" max="12805" width="17.85546875" style="64" customWidth="1"/>
+    <col min="12806" max="12806" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="9.140625" style="64"/>
+    <col min="12808" max="12808" width="41.28515625" style="64" customWidth="1"/>
+    <col min="12809" max="12809" width="24.5703125" style="64" customWidth="1"/>
+    <col min="12810" max="13056" width="9.140625" style="64"/>
+    <col min="13057" max="13057" width="14.140625" style="64" customWidth="1"/>
+    <col min="13058" max="13058" width="51.7109375" style="64" customWidth="1"/>
+    <col min="13059" max="13059" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="14.42578125" style="64" customWidth="1"/>
+    <col min="13061" max="13061" width="17.85546875" style="64" customWidth="1"/>
+    <col min="13062" max="13062" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="9.140625" style="64"/>
+    <col min="13064" max="13064" width="41.28515625" style="64" customWidth="1"/>
+    <col min="13065" max="13065" width="24.5703125" style="64" customWidth="1"/>
+    <col min="13066" max="13312" width="9.140625" style="64"/>
+    <col min="13313" max="13313" width="14.140625" style="64" customWidth="1"/>
+    <col min="13314" max="13314" width="51.7109375" style="64" customWidth="1"/>
+    <col min="13315" max="13315" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="14.42578125" style="64" customWidth="1"/>
+    <col min="13317" max="13317" width="17.85546875" style="64" customWidth="1"/>
+    <col min="13318" max="13318" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="9.140625" style="64"/>
+    <col min="13320" max="13320" width="41.28515625" style="64" customWidth="1"/>
+    <col min="13321" max="13321" width="24.5703125" style="64" customWidth="1"/>
+    <col min="13322" max="13568" width="9.140625" style="64"/>
+    <col min="13569" max="13569" width="14.140625" style="64" customWidth="1"/>
+    <col min="13570" max="13570" width="51.7109375" style="64" customWidth="1"/>
+    <col min="13571" max="13571" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="14.42578125" style="64" customWidth="1"/>
+    <col min="13573" max="13573" width="17.85546875" style="64" customWidth="1"/>
+    <col min="13574" max="13574" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="9.140625" style="64"/>
+    <col min="13576" max="13576" width="41.28515625" style="64" customWidth="1"/>
+    <col min="13577" max="13577" width="24.5703125" style="64" customWidth="1"/>
+    <col min="13578" max="13824" width="9.140625" style="64"/>
+    <col min="13825" max="13825" width="14.140625" style="64" customWidth="1"/>
+    <col min="13826" max="13826" width="51.7109375" style="64" customWidth="1"/>
+    <col min="13827" max="13827" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="14.42578125" style="64" customWidth="1"/>
+    <col min="13829" max="13829" width="17.85546875" style="64" customWidth="1"/>
+    <col min="13830" max="13830" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="9.140625" style="64"/>
+    <col min="13832" max="13832" width="41.28515625" style="64" customWidth="1"/>
+    <col min="13833" max="13833" width="24.5703125" style="64" customWidth="1"/>
+    <col min="13834" max="14080" width="9.140625" style="64"/>
+    <col min="14081" max="14081" width="14.140625" style="64" customWidth="1"/>
+    <col min="14082" max="14082" width="51.7109375" style="64" customWidth="1"/>
+    <col min="14083" max="14083" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="14.42578125" style="64" customWidth="1"/>
+    <col min="14085" max="14085" width="17.85546875" style="64" customWidth="1"/>
+    <col min="14086" max="14086" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="9.140625" style="64"/>
+    <col min="14088" max="14088" width="41.28515625" style="64" customWidth="1"/>
+    <col min="14089" max="14089" width="24.5703125" style="64" customWidth="1"/>
+    <col min="14090" max="14336" width="9.140625" style="64"/>
+    <col min="14337" max="14337" width="14.140625" style="64" customWidth="1"/>
+    <col min="14338" max="14338" width="51.7109375" style="64" customWidth="1"/>
+    <col min="14339" max="14339" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="14.42578125" style="64" customWidth="1"/>
+    <col min="14341" max="14341" width="17.85546875" style="64" customWidth="1"/>
+    <col min="14342" max="14342" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="9.140625" style="64"/>
+    <col min="14344" max="14344" width="41.28515625" style="64" customWidth="1"/>
+    <col min="14345" max="14345" width="24.5703125" style="64" customWidth="1"/>
+    <col min="14346" max="14592" width="9.140625" style="64"/>
+    <col min="14593" max="14593" width="14.140625" style="64" customWidth="1"/>
+    <col min="14594" max="14594" width="51.7109375" style="64" customWidth="1"/>
+    <col min="14595" max="14595" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="14.42578125" style="64" customWidth="1"/>
+    <col min="14597" max="14597" width="17.85546875" style="64" customWidth="1"/>
+    <col min="14598" max="14598" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="9.140625" style="64"/>
+    <col min="14600" max="14600" width="41.28515625" style="64" customWidth="1"/>
+    <col min="14601" max="14601" width="24.5703125" style="64" customWidth="1"/>
+    <col min="14602" max="14848" width="9.140625" style="64"/>
+    <col min="14849" max="14849" width="14.140625" style="64" customWidth="1"/>
+    <col min="14850" max="14850" width="51.7109375" style="64" customWidth="1"/>
+    <col min="14851" max="14851" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="14.42578125" style="64" customWidth="1"/>
+    <col min="14853" max="14853" width="17.85546875" style="64" customWidth="1"/>
+    <col min="14854" max="14854" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="9.140625" style="64"/>
+    <col min="14856" max="14856" width="41.28515625" style="64" customWidth="1"/>
+    <col min="14857" max="14857" width="24.5703125" style="64" customWidth="1"/>
+    <col min="14858" max="15104" width="9.140625" style="64"/>
+    <col min="15105" max="15105" width="14.140625" style="64" customWidth="1"/>
+    <col min="15106" max="15106" width="51.7109375" style="64" customWidth="1"/>
+    <col min="15107" max="15107" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="14.42578125" style="64" customWidth="1"/>
+    <col min="15109" max="15109" width="17.85546875" style="64" customWidth="1"/>
+    <col min="15110" max="15110" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="9.140625" style="64"/>
+    <col min="15112" max="15112" width="41.28515625" style="64" customWidth="1"/>
+    <col min="15113" max="15113" width="24.5703125" style="64" customWidth="1"/>
+    <col min="15114" max="15360" width="9.140625" style="64"/>
+    <col min="15361" max="15361" width="14.140625" style="64" customWidth="1"/>
+    <col min="15362" max="15362" width="51.7109375" style="64" customWidth="1"/>
+    <col min="15363" max="15363" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="14.42578125" style="64" customWidth="1"/>
+    <col min="15365" max="15365" width="17.85546875" style="64" customWidth="1"/>
+    <col min="15366" max="15366" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="9.140625" style="64"/>
+    <col min="15368" max="15368" width="41.28515625" style="64" customWidth="1"/>
+    <col min="15369" max="15369" width="24.5703125" style="64" customWidth="1"/>
+    <col min="15370" max="15616" width="9.140625" style="64"/>
+    <col min="15617" max="15617" width="14.140625" style="64" customWidth="1"/>
+    <col min="15618" max="15618" width="51.7109375" style="64" customWidth="1"/>
+    <col min="15619" max="15619" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="14.42578125" style="64" customWidth="1"/>
+    <col min="15621" max="15621" width="17.85546875" style="64" customWidth="1"/>
+    <col min="15622" max="15622" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="9.140625" style="64"/>
+    <col min="15624" max="15624" width="41.28515625" style="64" customWidth="1"/>
+    <col min="15625" max="15625" width="24.5703125" style="64" customWidth="1"/>
+    <col min="15626" max="15872" width="9.140625" style="64"/>
+    <col min="15873" max="15873" width="14.140625" style="64" customWidth="1"/>
+    <col min="15874" max="15874" width="51.7109375" style="64" customWidth="1"/>
+    <col min="15875" max="15875" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="14.42578125" style="64" customWidth="1"/>
+    <col min="15877" max="15877" width="17.85546875" style="64" customWidth="1"/>
+    <col min="15878" max="15878" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="9.140625" style="64"/>
+    <col min="15880" max="15880" width="41.28515625" style="64" customWidth="1"/>
+    <col min="15881" max="15881" width="24.5703125" style="64" customWidth="1"/>
+    <col min="15882" max="16128" width="9.140625" style="64"/>
+    <col min="16129" max="16129" width="14.140625" style="64" customWidth="1"/>
+    <col min="16130" max="16130" width="51.7109375" style="64" customWidth="1"/>
+    <col min="16131" max="16131" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="14.42578125" style="64" customWidth="1"/>
+    <col min="16133" max="16133" width="17.85546875" style="64" customWidth="1"/>
+    <col min="16134" max="16134" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="9.140625" style="64"/>
+    <col min="16136" max="16136" width="41.28515625" style="64" customWidth="1"/>
+    <col min="16137" max="16137" width="24.5703125" style="64" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="82"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="84"/>
+      <c r="I9" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41824</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41824</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>3</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26">
+        <v>4</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>1</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>2</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>3</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>4</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="43">
+        <v>5</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47">
+        <v>1</v>
+      </c>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="48">
+        <v>2</v>
+      </c>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="56">
+        <v>1</v>
+      </c>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56">
+        <v>2</v>
+      </c>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="57"/>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="58">
+        <v>3</v>
+      </c>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="65"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="65"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="28">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A6:I6">
+    <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F13">
+    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"On-hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"On-going"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I13">
+    <cfRule type="containsText" dxfId="53" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="containsText" dxfId="47" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="41" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I19">
+    <cfRule type="containsText" dxfId="35" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
+      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
+      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
+      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
+      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
+      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
+      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 WVN983050:WVN983053">
+      <formula1>"On-hold, On-going, Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983052:WVK983053 IY12:IY13 SU12:SU13 ACQ12:ACQ13 AMM12:AMM13 AWI12:AWI13 BGE12:BGE13 BQA12:BQA13 BZW12:BZW13 CJS12:CJS13 CTO12:CTO13 DDK12:DDK13 DNG12:DNG13 DXC12:DXC13 EGY12:EGY13 EQU12:EQU13 FAQ12:FAQ13 FKM12:FKM13 FUI12:FUI13 GEE12:GEE13 GOA12:GOA13 GXW12:GXW13 HHS12:HHS13 HRO12:HRO13 IBK12:IBK13 ILG12:ILG13 IVC12:IVC13 JEY12:JEY13 JOU12:JOU13 JYQ12:JYQ13 KIM12:KIM13 KSI12:KSI13 LCE12:LCE13 LMA12:LMA13 LVW12:LVW13 MFS12:MFS13 MPO12:MPO13 MZK12:MZK13 NJG12:NJG13 NTC12:NTC13 OCY12:OCY13 OMU12:OMU13 OWQ12:OWQ13 PGM12:PGM13 PQI12:PQI13 QAE12:QAE13 QKA12:QKA13 QTW12:QTW13 RDS12:RDS13 RNO12:RNO13 RXK12:RXK13 SHG12:SHG13 SRC12:SRC13 TAY12:TAY13 TKU12:TKU13 TUQ12:TUQ13 UEM12:UEM13 UOI12:UOI13 UYE12:UYE13 VIA12:VIA13 VRW12:VRW13 WBS12:WBS13 WLO12:WLO13 WVK12:WVK13 C65548:C65549 IY65548:IY65549 SU65548:SU65549 ACQ65548:ACQ65549 AMM65548:AMM65549 AWI65548:AWI65549 BGE65548:BGE65549 BQA65548:BQA65549 BZW65548:BZW65549 CJS65548:CJS65549 CTO65548:CTO65549 DDK65548:DDK65549 DNG65548:DNG65549 DXC65548:DXC65549 EGY65548:EGY65549 EQU65548:EQU65549 FAQ65548:FAQ65549 FKM65548:FKM65549 FUI65548:FUI65549 GEE65548:GEE65549 GOA65548:GOA65549 GXW65548:GXW65549 HHS65548:HHS65549 HRO65548:HRO65549 IBK65548:IBK65549 ILG65548:ILG65549 IVC65548:IVC65549 JEY65548:JEY65549 JOU65548:JOU65549 JYQ65548:JYQ65549 KIM65548:KIM65549 KSI65548:KSI65549 LCE65548:LCE65549 LMA65548:LMA65549 LVW65548:LVW65549 MFS65548:MFS65549 MPO65548:MPO65549 MZK65548:MZK65549 NJG65548:NJG65549 NTC65548:NTC65549 OCY65548:OCY65549 OMU65548:OMU65549 OWQ65548:OWQ65549 PGM65548:PGM65549 PQI65548:PQI65549 QAE65548:QAE65549 QKA65548:QKA65549 QTW65548:QTW65549 RDS65548:RDS65549 RNO65548:RNO65549 RXK65548:RXK65549 SHG65548:SHG65549 SRC65548:SRC65549 TAY65548:TAY65549 TKU65548:TKU65549 TUQ65548:TUQ65549 UEM65548:UEM65549 UOI65548:UOI65549 UYE65548:UYE65549 VIA65548:VIA65549 VRW65548:VRW65549 WBS65548:WBS65549 WLO65548:WLO65549 WVK65548:WVK65549 C131084:C131085 IY131084:IY131085 SU131084:SU131085 ACQ131084:ACQ131085 AMM131084:AMM131085 AWI131084:AWI131085 BGE131084:BGE131085 BQA131084:BQA131085 BZW131084:BZW131085 CJS131084:CJS131085 CTO131084:CTO131085 DDK131084:DDK131085 DNG131084:DNG131085 DXC131084:DXC131085 EGY131084:EGY131085 EQU131084:EQU131085 FAQ131084:FAQ131085 FKM131084:FKM131085 FUI131084:FUI131085 GEE131084:GEE131085 GOA131084:GOA131085 GXW131084:GXW131085 HHS131084:HHS131085 HRO131084:HRO131085 IBK131084:IBK131085 ILG131084:ILG131085 IVC131084:IVC131085 JEY131084:JEY131085 JOU131084:JOU131085 JYQ131084:JYQ131085 KIM131084:KIM131085 KSI131084:KSI131085 LCE131084:LCE131085 LMA131084:LMA131085 LVW131084:LVW131085 MFS131084:MFS131085 MPO131084:MPO131085 MZK131084:MZK131085 NJG131084:NJG131085 NTC131084:NTC131085 OCY131084:OCY131085 OMU131084:OMU131085 OWQ131084:OWQ131085 PGM131084:PGM131085 PQI131084:PQI131085 QAE131084:QAE131085 QKA131084:QKA131085 QTW131084:QTW131085 RDS131084:RDS131085 RNO131084:RNO131085 RXK131084:RXK131085 SHG131084:SHG131085 SRC131084:SRC131085 TAY131084:TAY131085 TKU131084:TKU131085 TUQ131084:TUQ131085 UEM131084:UEM131085 UOI131084:UOI131085 UYE131084:UYE131085 VIA131084:VIA131085 VRW131084:VRW131085 WBS131084:WBS131085 WLO131084:WLO131085 WVK131084:WVK131085 C196620:C196621 IY196620:IY196621 SU196620:SU196621 ACQ196620:ACQ196621 AMM196620:AMM196621 AWI196620:AWI196621 BGE196620:BGE196621 BQA196620:BQA196621 BZW196620:BZW196621 CJS196620:CJS196621 CTO196620:CTO196621 DDK196620:DDK196621 DNG196620:DNG196621 DXC196620:DXC196621 EGY196620:EGY196621 EQU196620:EQU196621 FAQ196620:FAQ196621 FKM196620:FKM196621 FUI196620:FUI196621 GEE196620:GEE196621 GOA196620:GOA196621 GXW196620:GXW196621 HHS196620:HHS196621 HRO196620:HRO196621 IBK196620:IBK196621 ILG196620:ILG196621 IVC196620:IVC196621 JEY196620:JEY196621 JOU196620:JOU196621 JYQ196620:JYQ196621 KIM196620:KIM196621 KSI196620:KSI196621 LCE196620:LCE196621 LMA196620:LMA196621 LVW196620:LVW196621 MFS196620:MFS196621 MPO196620:MPO196621 MZK196620:MZK196621 NJG196620:NJG196621 NTC196620:NTC196621 OCY196620:OCY196621 OMU196620:OMU196621 OWQ196620:OWQ196621 PGM196620:PGM196621 PQI196620:PQI196621 QAE196620:QAE196621 QKA196620:QKA196621 QTW196620:QTW196621 RDS196620:RDS196621 RNO196620:RNO196621 RXK196620:RXK196621 SHG196620:SHG196621 SRC196620:SRC196621 TAY196620:TAY196621 TKU196620:TKU196621 TUQ196620:TUQ196621 UEM196620:UEM196621 UOI196620:UOI196621 UYE196620:UYE196621 VIA196620:VIA196621 VRW196620:VRW196621 WBS196620:WBS196621 WLO196620:WLO196621 WVK196620:WVK196621 C262156:C262157 IY262156:IY262157 SU262156:SU262157 ACQ262156:ACQ262157 AMM262156:AMM262157 AWI262156:AWI262157 BGE262156:BGE262157 BQA262156:BQA262157 BZW262156:BZW262157 CJS262156:CJS262157 CTO262156:CTO262157 DDK262156:DDK262157 DNG262156:DNG262157 DXC262156:DXC262157 EGY262156:EGY262157 EQU262156:EQU262157 FAQ262156:FAQ262157 FKM262156:FKM262157 FUI262156:FUI262157 GEE262156:GEE262157 GOA262156:GOA262157 GXW262156:GXW262157 HHS262156:HHS262157 HRO262156:HRO262157 IBK262156:IBK262157 ILG262156:ILG262157 IVC262156:IVC262157 JEY262156:JEY262157 JOU262156:JOU262157 JYQ262156:JYQ262157 KIM262156:KIM262157 KSI262156:KSI262157 LCE262156:LCE262157 LMA262156:LMA262157 LVW262156:LVW262157 MFS262156:MFS262157 MPO262156:MPO262157 MZK262156:MZK262157 NJG262156:NJG262157 NTC262156:NTC262157 OCY262156:OCY262157 OMU262156:OMU262157 OWQ262156:OWQ262157 PGM262156:PGM262157 PQI262156:PQI262157 QAE262156:QAE262157 QKA262156:QKA262157 QTW262156:QTW262157 RDS262156:RDS262157 RNO262156:RNO262157 RXK262156:RXK262157 SHG262156:SHG262157 SRC262156:SRC262157 TAY262156:TAY262157 TKU262156:TKU262157 TUQ262156:TUQ262157 UEM262156:UEM262157 UOI262156:UOI262157 UYE262156:UYE262157 VIA262156:VIA262157 VRW262156:VRW262157 WBS262156:WBS262157 WLO262156:WLO262157 WVK262156:WVK262157 C327692:C327693 IY327692:IY327693 SU327692:SU327693 ACQ327692:ACQ327693 AMM327692:AMM327693 AWI327692:AWI327693 BGE327692:BGE327693 BQA327692:BQA327693 BZW327692:BZW327693 CJS327692:CJS327693 CTO327692:CTO327693 DDK327692:DDK327693 DNG327692:DNG327693 DXC327692:DXC327693 EGY327692:EGY327693 EQU327692:EQU327693 FAQ327692:FAQ327693 FKM327692:FKM327693 FUI327692:FUI327693 GEE327692:GEE327693 GOA327692:GOA327693 GXW327692:GXW327693 HHS327692:HHS327693 HRO327692:HRO327693 IBK327692:IBK327693 ILG327692:ILG327693 IVC327692:IVC327693 JEY327692:JEY327693 JOU327692:JOU327693 JYQ327692:JYQ327693 KIM327692:KIM327693 KSI327692:KSI327693 LCE327692:LCE327693 LMA327692:LMA327693 LVW327692:LVW327693 MFS327692:MFS327693 MPO327692:MPO327693 MZK327692:MZK327693 NJG327692:NJG327693 NTC327692:NTC327693 OCY327692:OCY327693 OMU327692:OMU327693 OWQ327692:OWQ327693 PGM327692:PGM327693 PQI327692:PQI327693 QAE327692:QAE327693 QKA327692:QKA327693 QTW327692:QTW327693 RDS327692:RDS327693 RNO327692:RNO327693 RXK327692:RXK327693 SHG327692:SHG327693 SRC327692:SRC327693 TAY327692:TAY327693 TKU327692:TKU327693 TUQ327692:TUQ327693 UEM327692:UEM327693 UOI327692:UOI327693 UYE327692:UYE327693 VIA327692:VIA327693 VRW327692:VRW327693 WBS327692:WBS327693 WLO327692:WLO327693 WVK327692:WVK327693 C393228:C393229 IY393228:IY393229 SU393228:SU393229 ACQ393228:ACQ393229 AMM393228:AMM393229 AWI393228:AWI393229 BGE393228:BGE393229 BQA393228:BQA393229 BZW393228:BZW393229 CJS393228:CJS393229 CTO393228:CTO393229 DDK393228:DDK393229 DNG393228:DNG393229 DXC393228:DXC393229 EGY393228:EGY393229 EQU393228:EQU393229 FAQ393228:FAQ393229 FKM393228:FKM393229 FUI393228:FUI393229 GEE393228:GEE393229 GOA393228:GOA393229 GXW393228:GXW393229 HHS393228:HHS393229 HRO393228:HRO393229 IBK393228:IBK393229 ILG393228:ILG393229 IVC393228:IVC393229 JEY393228:JEY393229 JOU393228:JOU393229 JYQ393228:JYQ393229 KIM393228:KIM393229 KSI393228:KSI393229 LCE393228:LCE393229 LMA393228:LMA393229 LVW393228:LVW393229 MFS393228:MFS393229 MPO393228:MPO393229 MZK393228:MZK393229 NJG393228:NJG393229 NTC393228:NTC393229 OCY393228:OCY393229 OMU393228:OMU393229 OWQ393228:OWQ393229 PGM393228:PGM393229 PQI393228:PQI393229 QAE393228:QAE393229 QKA393228:QKA393229 QTW393228:QTW393229 RDS393228:RDS393229 RNO393228:RNO393229 RXK393228:RXK393229 SHG393228:SHG393229 SRC393228:SRC393229 TAY393228:TAY393229 TKU393228:TKU393229 TUQ393228:TUQ393229 UEM393228:UEM393229 UOI393228:UOI393229 UYE393228:UYE393229 VIA393228:VIA393229 VRW393228:VRW393229 WBS393228:WBS393229 WLO393228:WLO393229 WVK393228:WVK393229 C458764:C458765 IY458764:IY458765 SU458764:SU458765 ACQ458764:ACQ458765 AMM458764:AMM458765 AWI458764:AWI458765 BGE458764:BGE458765 BQA458764:BQA458765 BZW458764:BZW458765 CJS458764:CJS458765 CTO458764:CTO458765 DDK458764:DDK458765 DNG458764:DNG458765 DXC458764:DXC458765 EGY458764:EGY458765 EQU458764:EQU458765 FAQ458764:FAQ458765 FKM458764:FKM458765 FUI458764:FUI458765 GEE458764:GEE458765 GOA458764:GOA458765 GXW458764:GXW458765 HHS458764:HHS458765 HRO458764:HRO458765 IBK458764:IBK458765 ILG458764:ILG458765 IVC458764:IVC458765 JEY458764:JEY458765 JOU458764:JOU458765 JYQ458764:JYQ458765 KIM458764:KIM458765 KSI458764:KSI458765 LCE458764:LCE458765 LMA458764:LMA458765 LVW458764:LVW458765 MFS458764:MFS458765 MPO458764:MPO458765 MZK458764:MZK458765 NJG458764:NJG458765 NTC458764:NTC458765 OCY458764:OCY458765 OMU458764:OMU458765 OWQ458764:OWQ458765 PGM458764:PGM458765 PQI458764:PQI458765 QAE458764:QAE458765 QKA458764:QKA458765 QTW458764:QTW458765 RDS458764:RDS458765 RNO458764:RNO458765 RXK458764:RXK458765 SHG458764:SHG458765 SRC458764:SRC458765 TAY458764:TAY458765 TKU458764:TKU458765 TUQ458764:TUQ458765 UEM458764:UEM458765 UOI458764:UOI458765 UYE458764:UYE458765 VIA458764:VIA458765 VRW458764:VRW458765 WBS458764:WBS458765 WLO458764:WLO458765 WVK458764:WVK458765 C524300:C524301 IY524300:IY524301 SU524300:SU524301 ACQ524300:ACQ524301 AMM524300:AMM524301 AWI524300:AWI524301 BGE524300:BGE524301 BQA524300:BQA524301 BZW524300:BZW524301 CJS524300:CJS524301 CTO524300:CTO524301 DDK524300:DDK524301 DNG524300:DNG524301 DXC524300:DXC524301 EGY524300:EGY524301 EQU524300:EQU524301 FAQ524300:FAQ524301 FKM524300:FKM524301 FUI524300:FUI524301 GEE524300:GEE524301 GOA524300:GOA524301 GXW524300:GXW524301 HHS524300:HHS524301 HRO524300:HRO524301 IBK524300:IBK524301 ILG524300:ILG524301 IVC524300:IVC524301 JEY524300:JEY524301 JOU524300:JOU524301 JYQ524300:JYQ524301 KIM524300:KIM524301 KSI524300:KSI524301 LCE524300:LCE524301 LMA524300:LMA524301 LVW524300:LVW524301 MFS524300:MFS524301 MPO524300:MPO524301 MZK524300:MZK524301 NJG524300:NJG524301 NTC524300:NTC524301 OCY524300:OCY524301 OMU524300:OMU524301 OWQ524300:OWQ524301 PGM524300:PGM524301 PQI524300:PQI524301 QAE524300:QAE524301 QKA524300:QKA524301 QTW524300:QTW524301 RDS524300:RDS524301 RNO524300:RNO524301 RXK524300:RXK524301 SHG524300:SHG524301 SRC524300:SRC524301 TAY524300:TAY524301 TKU524300:TKU524301 TUQ524300:TUQ524301 UEM524300:UEM524301 UOI524300:UOI524301 UYE524300:UYE524301 VIA524300:VIA524301 VRW524300:VRW524301 WBS524300:WBS524301 WLO524300:WLO524301 WVK524300:WVK524301 C589836:C589837 IY589836:IY589837 SU589836:SU589837 ACQ589836:ACQ589837 AMM589836:AMM589837 AWI589836:AWI589837 BGE589836:BGE589837 BQA589836:BQA589837 BZW589836:BZW589837 CJS589836:CJS589837 CTO589836:CTO589837 DDK589836:DDK589837 DNG589836:DNG589837 DXC589836:DXC589837 EGY589836:EGY589837 EQU589836:EQU589837 FAQ589836:FAQ589837 FKM589836:FKM589837 FUI589836:FUI589837 GEE589836:GEE589837 GOA589836:GOA589837 GXW589836:GXW589837 HHS589836:HHS589837 HRO589836:HRO589837 IBK589836:IBK589837 ILG589836:ILG589837 IVC589836:IVC589837 JEY589836:JEY589837 JOU589836:JOU589837 JYQ589836:JYQ589837 KIM589836:KIM589837 KSI589836:KSI589837 LCE589836:LCE589837 LMA589836:LMA589837 LVW589836:LVW589837 MFS589836:MFS589837 MPO589836:MPO589837 MZK589836:MZK589837 NJG589836:NJG589837 NTC589836:NTC589837 OCY589836:OCY589837 OMU589836:OMU589837 OWQ589836:OWQ589837 PGM589836:PGM589837 PQI589836:PQI589837 QAE589836:QAE589837 QKA589836:QKA589837 QTW589836:QTW589837 RDS589836:RDS589837 RNO589836:RNO589837 RXK589836:RXK589837 SHG589836:SHG589837 SRC589836:SRC589837 TAY589836:TAY589837 TKU589836:TKU589837 TUQ589836:TUQ589837 UEM589836:UEM589837 UOI589836:UOI589837 UYE589836:UYE589837 VIA589836:VIA589837 VRW589836:VRW589837 WBS589836:WBS589837 WLO589836:WLO589837 WVK589836:WVK589837 C655372:C655373 IY655372:IY655373 SU655372:SU655373 ACQ655372:ACQ655373 AMM655372:AMM655373 AWI655372:AWI655373 BGE655372:BGE655373 BQA655372:BQA655373 BZW655372:BZW655373 CJS655372:CJS655373 CTO655372:CTO655373 DDK655372:DDK655373 DNG655372:DNG655373 DXC655372:DXC655373 EGY655372:EGY655373 EQU655372:EQU655373 FAQ655372:FAQ655373 FKM655372:FKM655373 FUI655372:FUI655373 GEE655372:GEE655373 GOA655372:GOA655373 GXW655372:GXW655373 HHS655372:HHS655373 HRO655372:HRO655373 IBK655372:IBK655373 ILG655372:ILG655373 IVC655372:IVC655373 JEY655372:JEY655373 JOU655372:JOU655373 JYQ655372:JYQ655373 KIM655372:KIM655373 KSI655372:KSI655373 LCE655372:LCE655373 LMA655372:LMA655373 LVW655372:LVW655373 MFS655372:MFS655373 MPO655372:MPO655373 MZK655372:MZK655373 NJG655372:NJG655373 NTC655372:NTC655373 OCY655372:OCY655373 OMU655372:OMU655373 OWQ655372:OWQ655373 PGM655372:PGM655373 PQI655372:PQI655373 QAE655372:QAE655373 QKA655372:QKA655373 QTW655372:QTW655373 RDS655372:RDS655373 RNO655372:RNO655373 RXK655372:RXK655373 SHG655372:SHG655373 SRC655372:SRC655373 TAY655372:TAY655373 TKU655372:TKU655373 TUQ655372:TUQ655373 UEM655372:UEM655373 UOI655372:UOI655373 UYE655372:UYE655373 VIA655372:VIA655373 VRW655372:VRW655373 WBS655372:WBS655373 WLO655372:WLO655373 WVK655372:WVK655373 C720908:C720909 IY720908:IY720909 SU720908:SU720909 ACQ720908:ACQ720909 AMM720908:AMM720909 AWI720908:AWI720909 BGE720908:BGE720909 BQA720908:BQA720909 BZW720908:BZW720909 CJS720908:CJS720909 CTO720908:CTO720909 DDK720908:DDK720909 DNG720908:DNG720909 DXC720908:DXC720909 EGY720908:EGY720909 EQU720908:EQU720909 FAQ720908:FAQ720909 FKM720908:FKM720909 FUI720908:FUI720909 GEE720908:GEE720909 GOA720908:GOA720909 GXW720908:GXW720909 HHS720908:HHS720909 HRO720908:HRO720909 IBK720908:IBK720909 ILG720908:ILG720909 IVC720908:IVC720909 JEY720908:JEY720909 JOU720908:JOU720909 JYQ720908:JYQ720909 KIM720908:KIM720909 KSI720908:KSI720909 LCE720908:LCE720909 LMA720908:LMA720909 LVW720908:LVW720909 MFS720908:MFS720909 MPO720908:MPO720909 MZK720908:MZK720909 NJG720908:NJG720909 NTC720908:NTC720909 OCY720908:OCY720909 OMU720908:OMU720909 OWQ720908:OWQ720909 PGM720908:PGM720909 PQI720908:PQI720909 QAE720908:QAE720909 QKA720908:QKA720909 QTW720908:QTW720909 RDS720908:RDS720909 RNO720908:RNO720909 RXK720908:RXK720909 SHG720908:SHG720909 SRC720908:SRC720909 TAY720908:TAY720909 TKU720908:TKU720909 TUQ720908:TUQ720909 UEM720908:UEM720909 UOI720908:UOI720909 UYE720908:UYE720909 VIA720908:VIA720909 VRW720908:VRW720909 WBS720908:WBS720909 WLO720908:WLO720909 WVK720908:WVK720909 C786444:C786445 IY786444:IY786445 SU786444:SU786445 ACQ786444:ACQ786445 AMM786444:AMM786445 AWI786444:AWI786445 BGE786444:BGE786445 BQA786444:BQA786445 BZW786444:BZW786445 CJS786444:CJS786445 CTO786444:CTO786445 DDK786444:DDK786445 DNG786444:DNG786445 DXC786444:DXC786445 EGY786444:EGY786445 EQU786444:EQU786445 FAQ786444:FAQ786445 FKM786444:FKM786445 FUI786444:FUI786445 GEE786444:GEE786445 GOA786444:GOA786445 GXW786444:GXW786445 HHS786444:HHS786445 HRO786444:HRO786445 IBK786444:IBK786445 ILG786444:ILG786445 IVC786444:IVC786445 JEY786444:JEY786445 JOU786444:JOU786445 JYQ786444:JYQ786445 KIM786444:KIM786445 KSI786444:KSI786445 LCE786444:LCE786445 LMA786444:LMA786445 LVW786444:LVW786445 MFS786444:MFS786445 MPO786444:MPO786445 MZK786444:MZK786445 NJG786444:NJG786445 NTC786444:NTC786445 OCY786444:OCY786445 OMU786444:OMU786445 OWQ786444:OWQ786445 PGM786444:PGM786445 PQI786444:PQI786445 QAE786444:QAE786445 QKA786444:QKA786445 QTW786444:QTW786445 RDS786444:RDS786445 RNO786444:RNO786445 RXK786444:RXK786445 SHG786444:SHG786445 SRC786444:SRC786445 TAY786444:TAY786445 TKU786444:TKU786445 TUQ786444:TUQ786445 UEM786444:UEM786445 UOI786444:UOI786445 UYE786444:UYE786445 VIA786444:VIA786445 VRW786444:VRW786445 WBS786444:WBS786445 WLO786444:WLO786445 WVK786444:WVK786445 C851980:C851981 IY851980:IY851981 SU851980:SU851981 ACQ851980:ACQ851981 AMM851980:AMM851981 AWI851980:AWI851981 BGE851980:BGE851981 BQA851980:BQA851981 BZW851980:BZW851981 CJS851980:CJS851981 CTO851980:CTO851981 DDK851980:DDK851981 DNG851980:DNG851981 DXC851980:DXC851981 EGY851980:EGY851981 EQU851980:EQU851981 FAQ851980:FAQ851981 FKM851980:FKM851981 FUI851980:FUI851981 GEE851980:GEE851981 GOA851980:GOA851981 GXW851980:GXW851981 HHS851980:HHS851981 HRO851980:HRO851981 IBK851980:IBK851981 ILG851980:ILG851981 IVC851980:IVC851981 JEY851980:JEY851981 JOU851980:JOU851981 JYQ851980:JYQ851981 KIM851980:KIM851981 KSI851980:KSI851981 LCE851980:LCE851981 LMA851980:LMA851981 LVW851980:LVW851981 MFS851980:MFS851981 MPO851980:MPO851981 MZK851980:MZK851981 NJG851980:NJG851981 NTC851980:NTC851981 OCY851980:OCY851981 OMU851980:OMU851981 OWQ851980:OWQ851981 PGM851980:PGM851981 PQI851980:PQI851981 QAE851980:QAE851981 QKA851980:QKA851981 QTW851980:QTW851981 RDS851980:RDS851981 RNO851980:RNO851981 RXK851980:RXK851981 SHG851980:SHG851981 SRC851980:SRC851981 TAY851980:TAY851981 TKU851980:TKU851981 TUQ851980:TUQ851981 UEM851980:UEM851981 UOI851980:UOI851981 UYE851980:UYE851981 VIA851980:VIA851981 VRW851980:VRW851981 WBS851980:WBS851981 WLO851980:WLO851981 WVK851980:WVK851981 C917516:C917517 IY917516:IY917517 SU917516:SU917517 ACQ917516:ACQ917517 AMM917516:AMM917517 AWI917516:AWI917517 BGE917516:BGE917517 BQA917516:BQA917517 BZW917516:BZW917517 CJS917516:CJS917517 CTO917516:CTO917517 DDK917516:DDK917517 DNG917516:DNG917517 DXC917516:DXC917517 EGY917516:EGY917517 EQU917516:EQU917517 FAQ917516:FAQ917517 FKM917516:FKM917517 FUI917516:FUI917517 GEE917516:GEE917517 GOA917516:GOA917517 GXW917516:GXW917517 HHS917516:HHS917517 HRO917516:HRO917517 IBK917516:IBK917517 ILG917516:ILG917517 IVC917516:IVC917517 JEY917516:JEY917517 JOU917516:JOU917517 JYQ917516:JYQ917517 KIM917516:KIM917517 KSI917516:KSI917517 LCE917516:LCE917517 LMA917516:LMA917517 LVW917516:LVW917517 MFS917516:MFS917517 MPO917516:MPO917517 MZK917516:MZK917517 NJG917516:NJG917517 NTC917516:NTC917517 OCY917516:OCY917517 OMU917516:OMU917517 OWQ917516:OWQ917517 PGM917516:PGM917517 PQI917516:PQI917517 QAE917516:QAE917517 QKA917516:QKA917517 QTW917516:QTW917517 RDS917516:RDS917517 RNO917516:RNO917517 RXK917516:RXK917517 SHG917516:SHG917517 SRC917516:SRC917517 TAY917516:TAY917517 TKU917516:TKU917517 TUQ917516:TUQ917517 UEM917516:UEM917517 UOI917516:UOI917517 UYE917516:UYE917517 VIA917516:VIA917517 VRW917516:VRW917517 WBS917516:WBS917517 WLO917516:WLO917517 WVK917516:WVK917517 C983052:C983053 IY983052:IY983053 SU983052:SU983053 ACQ983052:ACQ983053 AMM983052:AMM983053 AWI983052:AWI983053 BGE983052:BGE983053 BQA983052:BQA983053 BZW983052:BZW983053 CJS983052:CJS983053 CTO983052:CTO983053 DDK983052:DDK983053 DNG983052:DNG983053 DXC983052:DXC983053 EGY983052:EGY983053 EQU983052:EQU983053 FAQ983052:FAQ983053 FKM983052:FKM983053 FUI983052:FUI983053 GEE983052:GEE983053 GOA983052:GOA983053 GXW983052:GXW983053 HHS983052:HHS983053 HRO983052:HRO983053 IBK983052:IBK983053 ILG983052:ILG983053 IVC983052:IVC983053 JEY983052:JEY983053 JOU983052:JOU983053 JYQ983052:JYQ983053 KIM983052:KIM983053 KSI983052:KSI983053 LCE983052:LCE983053 LMA983052:LMA983053 LVW983052:LVW983053 MFS983052:MFS983053 MPO983052:MPO983053 MZK983052:MZK983053 NJG983052:NJG983053 NTC983052:NTC983053 OCY983052:OCY983053 OMU983052:OMU983053 OWQ983052:OWQ983053 PGM983052:PGM983053 PQI983052:PQI983053 QAE983052:QAE983053 QKA983052:QKA983053 QTW983052:QTW983053 RDS983052:RDS983053 RNO983052:RNO983053 RXK983052:RXK983053 SHG983052:SHG983053 SRC983052:SRC983053 TAY983052:TAY983053 TKU983052:TKU983053 TUQ983052:TUQ983053 UEM983052:UEM983053 UOI983052:UOI983053 UYE983052:UYE983053 VIA983052:VIA983053 VRW983052:VRW983053 WBS983052:WBS983053 WLO983052:WLO983053">
+      <formula1>"Low, Medium, High"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Team member'!$B$1:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>I17:I19 I10:I13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -8755,16 +10166,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8779,10 +10190,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -8794,10 +10205,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="112"/>
+      <c r="A4" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8818,17 +10229,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8861,7 +10272,7 @@
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -8873,10 +10284,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8885,44 +10296,48 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41824</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41824</v>
+      </c>
       <c r="F10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -8932,8 +10347,8 @@
       <c r="A13" s="26">
         <v>4</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
@@ -8954,7 +10369,7 @@
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -8969,19 +10384,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -8990,22 +10405,22 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -9016,8 +10431,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -9029,8 +10444,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -9042,8 +10457,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -9079,44 +10494,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9146,19 +10561,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9167,13 +10582,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9204,41 +10619,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9289,1351 +10704,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A6:I6">
-    <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
-    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"On-hold"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"On-going"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
-    <cfRule type="containsText" dxfId="53" priority="19" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="20" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="21" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="22" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="23" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="24" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I21">
-    <cfRule type="containsText" dxfId="47" priority="13" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="14" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="15" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="16" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="17" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="18" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="41" priority="7" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="8" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="9" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="10" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="11" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="12" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I19">
-    <cfRule type="containsText" dxfId="35" priority="1" stopIfTrue="1" operator="containsText" text="Ta Ngoc Thien Phu">
-      <formula>NOT(ISERROR(SEARCH("Ta Ngoc Thien Phu",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" stopIfTrue="1" operator="containsText" text="Ngo Quang Huy">
-      <formula>NOT(ISERROR(SEARCH("Ngo Quang Huy",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" stopIfTrue="1" operator="containsText" text="Pham Ngoc Hung">
-      <formula>NOT(ISERROR(SEARCH("Pham Ngoc Hung",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" stopIfTrue="1" operator="containsText" text="Khau Thanh Dao">
-      <formula>NOT(ISERROR(SEARCH("Khau Thanh Dao",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" stopIfTrue="1" operator="containsText" text="Le Ngoc Chau">
-      <formula>NOT(ISERROR(SEARCH("Le Ngoc Chau",I17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" stopIfTrue="1" operator="containsText" text="Trinh Thai Anh">
-      <formula>NOT(ISERROR(SEARCH("Trinh Thai Anh",I17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13 JB10:JB13 SX10:SX13 ACT10:ACT13 AMP10:AMP13 AWL10:AWL13 BGH10:BGH13 BQD10:BQD13 BZZ10:BZZ13 CJV10:CJV13 CTR10:CTR13 DDN10:DDN13 DNJ10:DNJ13 DXF10:DXF13 EHB10:EHB13 EQX10:EQX13 FAT10:FAT13 FKP10:FKP13 FUL10:FUL13 GEH10:GEH13 GOD10:GOD13 GXZ10:GXZ13 HHV10:HHV13 HRR10:HRR13 IBN10:IBN13 ILJ10:ILJ13 IVF10:IVF13 JFB10:JFB13 JOX10:JOX13 JYT10:JYT13 KIP10:KIP13 KSL10:KSL13 LCH10:LCH13 LMD10:LMD13 LVZ10:LVZ13 MFV10:MFV13 MPR10:MPR13 MZN10:MZN13 NJJ10:NJJ13 NTF10:NTF13 ODB10:ODB13 OMX10:OMX13 OWT10:OWT13 PGP10:PGP13 PQL10:PQL13 QAH10:QAH13 QKD10:QKD13 QTZ10:QTZ13 RDV10:RDV13 RNR10:RNR13 RXN10:RXN13 SHJ10:SHJ13 SRF10:SRF13 TBB10:TBB13 TKX10:TKX13 TUT10:TUT13 UEP10:UEP13 UOL10:UOL13 UYH10:UYH13 VID10:VID13 VRZ10:VRZ13 WBV10:WBV13 WLR10:WLR13 WVN10:WVN13 F65546:F65549 JB65546:JB65549 SX65546:SX65549 ACT65546:ACT65549 AMP65546:AMP65549 AWL65546:AWL65549 BGH65546:BGH65549 BQD65546:BQD65549 BZZ65546:BZZ65549 CJV65546:CJV65549 CTR65546:CTR65549 DDN65546:DDN65549 DNJ65546:DNJ65549 DXF65546:DXF65549 EHB65546:EHB65549 EQX65546:EQX65549 FAT65546:FAT65549 FKP65546:FKP65549 FUL65546:FUL65549 GEH65546:GEH65549 GOD65546:GOD65549 GXZ65546:GXZ65549 HHV65546:HHV65549 HRR65546:HRR65549 IBN65546:IBN65549 ILJ65546:ILJ65549 IVF65546:IVF65549 JFB65546:JFB65549 JOX65546:JOX65549 JYT65546:JYT65549 KIP65546:KIP65549 KSL65546:KSL65549 LCH65546:LCH65549 LMD65546:LMD65549 LVZ65546:LVZ65549 MFV65546:MFV65549 MPR65546:MPR65549 MZN65546:MZN65549 NJJ65546:NJJ65549 NTF65546:NTF65549 ODB65546:ODB65549 OMX65546:OMX65549 OWT65546:OWT65549 PGP65546:PGP65549 PQL65546:PQL65549 QAH65546:QAH65549 QKD65546:QKD65549 QTZ65546:QTZ65549 RDV65546:RDV65549 RNR65546:RNR65549 RXN65546:RXN65549 SHJ65546:SHJ65549 SRF65546:SRF65549 TBB65546:TBB65549 TKX65546:TKX65549 TUT65546:TUT65549 UEP65546:UEP65549 UOL65546:UOL65549 UYH65546:UYH65549 VID65546:VID65549 VRZ65546:VRZ65549 WBV65546:WBV65549 WLR65546:WLR65549 WVN65546:WVN65549 F131082:F131085 JB131082:JB131085 SX131082:SX131085 ACT131082:ACT131085 AMP131082:AMP131085 AWL131082:AWL131085 BGH131082:BGH131085 BQD131082:BQD131085 BZZ131082:BZZ131085 CJV131082:CJV131085 CTR131082:CTR131085 DDN131082:DDN131085 DNJ131082:DNJ131085 DXF131082:DXF131085 EHB131082:EHB131085 EQX131082:EQX131085 FAT131082:FAT131085 FKP131082:FKP131085 FUL131082:FUL131085 GEH131082:GEH131085 GOD131082:GOD131085 GXZ131082:GXZ131085 HHV131082:HHV131085 HRR131082:HRR131085 IBN131082:IBN131085 ILJ131082:ILJ131085 IVF131082:IVF131085 JFB131082:JFB131085 JOX131082:JOX131085 JYT131082:JYT131085 KIP131082:KIP131085 KSL131082:KSL131085 LCH131082:LCH131085 LMD131082:LMD131085 LVZ131082:LVZ131085 MFV131082:MFV131085 MPR131082:MPR131085 MZN131082:MZN131085 NJJ131082:NJJ131085 NTF131082:NTF131085 ODB131082:ODB131085 OMX131082:OMX131085 OWT131082:OWT131085 PGP131082:PGP131085 PQL131082:PQL131085 QAH131082:QAH131085 QKD131082:QKD131085 QTZ131082:QTZ131085 RDV131082:RDV131085 RNR131082:RNR131085 RXN131082:RXN131085 SHJ131082:SHJ131085 SRF131082:SRF131085 TBB131082:TBB131085 TKX131082:TKX131085 TUT131082:TUT131085 UEP131082:UEP131085 UOL131082:UOL131085 UYH131082:UYH131085 VID131082:VID131085 VRZ131082:VRZ131085 WBV131082:WBV131085 WLR131082:WLR131085 WVN131082:WVN131085 F196618:F196621 JB196618:JB196621 SX196618:SX196621 ACT196618:ACT196621 AMP196618:AMP196621 AWL196618:AWL196621 BGH196618:BGH196621 BQD196618:BQD196621 BZZ196618:BZZ196621 CJV196618:CJV196621 CTR196618:CTR196621 DDN196618:DDN196621 DNJ196618:DNJ196621 DXF196618:DXF196621 EHB196618:EHB196621 EQX196618:EQX196621 FAT196618:FAT196621 FKP196618:FKP196621 FUL196618:FUL196621 GEH196618:GEH196621 GOD196618:GOD196621 GXZ196618:GXZ196621 HHV196618:HHV196621 HRR196618:HRR196621 IBN196618:IBN196621 ILJ196618:ILJ196621 IVF196618:IVF196621 JFB196618:JFB196621 JOX196618:JOX196621 JYT196618:JYT196621 KIP196618:KIP196621 KSL196618:KSL196621 LCH196618:LCH196621 LMD196618:LMD196621 LVZ196618:LVZ196621 MFV196618:MFV196621 MPR196618:MPR196621 MZN196618:MZN196621 NJJ196618:NJJ196621 NTF196618:NTF196621 ODB196618:ODB196621 OMX196618:OMX196621 OWT196618:OWT196621 PGP196618:PGP196621 PQL196618:PQL196621 QAH196618:QAH196621 QKD196618:QKD196621 QTZ196618:QTZ196621 RDV196618:RDV196621 RNR196618:RNR196621 RXN196618:RXN196621 SHJ196618:SHJ196621 SRF196618:SRF196621 TBB196618:TBB196621 TKX196618:TKX196621 TUT196618:TUT196621 UEP196618:UEP196621 UOL196618:UOL196621 UYH196618:UYH196621 VID196618:VID196621 VRZ196618:VRZ196621 WBV196618:WBV196621 WLR196618:WLR196621 WVN196618:WVN196621 F262154:F262157 JB262154:JB262157 SX262154:SX262157 ACT262154:ACT262157 AMP262154:AMP262157 AWL262154:AWL262157 BGH262154:BGH262157 BQD262154:BQD262157 BZZ262154:BZZ262157 CJV262154:CJV262157 CTR262154:CTR262157 DDN262154:DDN262157 DNJ262154:DNJ262157 DXF262154:DXF262157 EHB262154:EHB262157 EQX262154:EQX262157 FAT262154:FAT262157 FKP262154:FKP262157 FUL262154:FUL262157 GEH262154:GEH262157 GOD262154:GOD262157 GXZ262154:GXZ262157 HHV262154:HHV262157 HRR262154:HRR262157 IBN262154:IBN262157 ILJ262154:ILJ262157 IVF262154:IVF262157 JFB262154:JFB262157 JOX262154:JOX262157 JYT262154:JYT262157 KIP262154:KIP262157 KSL262154:KSL262157 LCH262154:LCH262157 LMD262154:LMD262157 LVZ262154:LVZ262157 MFV262154:MFV262157 MPR262154:MPR262157 MZN262154:MZN262157 NJJ262154:NJJ262157 NTF262154:NTF262157 ODB262154:ODB262157 OMX262154:OMX262157 OWT262154:OWT262157 PGP262154:PGP262157 PQL262154:PQL262157 QAH262154:QAH262157 QKD262154:QKD262157 QTZ262154:QTZ262157 RDV262154:RDV262157 RNR262154:RNR262157 RXN262154:RXN262157 SHJ262154:SHJ262157 SRF262154:SRF262157 TBB262154:TBB262157 TKX262154:TKX262157 TUT262154:TUT262157 UEP262154:UEP262157 UOL262154:UOL262157 UYH262154:UYH262157 VID262154:VID262157 VRZ262154:VRZ262157 WBV262154:WBV262157 WLR262154:WLR262157 WVN262154:WVN262157 F327690:F327693 JB327690:JB327693 SX327690:SX327693 ACT327690:ACT327693 AMP327690:AMP327693 AWL327690:AWL327693 BGH327690:BGH327693 BQD327690:BQD327693 BZZ327690:BZZ327693 CJV327690:CJV327693 CTR327690:CTR327693 DDN327690:DDN327693 DNJ327690:DNJ327693 DXF327690:DXF327693 EHB327690:EHB327693 EQX327690:EQX327693 FAT327690:FAT327693 FKP327690:FKP327693 FUL327690:FUL327693 GEH327690:GEH327693 GOD327690:GOD327693 GXZ327690:GXZ327693 HHV327690:HHV327693 HRR327690:HRR327693 IBN327690:IBN327693 ILJ327690:ILJ327693 IVF327690:IVF327693 JFB327690:JFB327693 JOX327690:JOX327693 JYT327690:JYT327693 KIP327690:KIP327693 KSL327690:KSL327693 LCH327690:LCH327693 LMD327690:LMD327693 LVZ327690:LVZ327693 MFV327690:MFV327693 MPR327690:MPR327693 MZN327690:MZN327693 NJJ327690:NJJ327693 NTF327690:NTF327693 ODB327690:ODB327693 OMX327690:OMX327693 OWT327690:OWT327693 PGP327690:PGP327693 PQL327690:PQL327693 QAH327690:QAH327693 QKD327690:QKD327693 QTZ327690:QTZ327693 RDV327690:RDV327693 RNR327690:RNR327693 RXN327690:RXN327693 SHJ327690:SHJ327693 SRF327690:SRF327693 TBB327690:TBB327693 TKX327690:TKX327693 TUT327690:TUT327693 UEP327690:UEP327693 UOL327690:UOL327693 UYH327690:UYH327693 VID327690:VID327693 VRZ327690:VRZ327693 WBV327690:WBV327693 WLR327690:WLR327693 WVN327690:WVN327693 F393226:F393229 JB393226:JB393229 SX393226:SX393229 ACT393226:ACT393229 AMP393226:AMP393229 AWL393226:AWL393229 BGH393226:BGH393229 BQD393226:BQD393229 BZZ393226:BZZ393229 CJV393226:CJV393229 CTR393226:CTR393229 DDN393226:DDN393229 DNJ393226:DNJ393229 DXF393226:DXF393229 EHB393226:EHB393229 EQX393226:EQX393229 FAT393226:FAT393229 FKP393226:FKP393229 FUL393226:FUL393229 GEH393226:GEH393229 GOD393226:GOD393229 GXZ393226:GXZ393229 HHV393226:HHV393229 HRR393226:HRR393229 IBN393226:IBN393229 ILJ393226:ILJ393229 IVF393226:IVF393229 JFB393226:JFB393229 JOX393226:JOX393229 JYT393226:JYT393229 KIP393226:KIP393229 KSL393226:KSL393229 LCH393226:LCH393229 LMD393226:LMD393229 LVZ393226:LVZ393229 MFV393226:MFV393229 MPR393226:MPR393229 MZN393226:MZN393229 NJJ393226:NJJ393229 NTF393226:NTF393229 ODB393226:ODB393229 OMX393226:OMX393229 OWT393226:OWT393229 PGP393226:PGP393229 PQL393226:PQL393229 QAH393226:QAH393229 QKD393226:QKD393229 QTZ393226:QTZ393229 RDV393226:RDV393229 RNR393226:RNR393229 RXN393226:RXN393229 SHJ393226:SHJ393229 SRF393226:SRF393229 TBB393226:TBB393229 TKX393226:TKX393229 TUT393226:TUT393229 UEP393226:UEP393229 UOL393226:UOL393229 UYH393226:UYH393229 VID393226:VID393229 VRZ393226:VRZ393229 WBV393226:WBV393229 WLR393226:WLR393229 WVN393226:WVN393229 F458762:F458765 JB458762:JB458765 SX458762:SX458765 ACT458762:ACT458765 AMP458762:AMP458765 AWL458762:AWL458765 BGH458762:BGH458765 BQD458762:BQD458765 BZZ458762:BZZ458765 CJV458762:CJV458765 CTR458762:CTR458765 DDN458762:DDN458765 DNJ458762:DNJ458765 DXF458762:DXF458765 EHB458762:EHB458765 EQX458762:EQX458765 FAT458762:FAT458765 FKP458762:FKP458765 FUL458762:FUL458765 GEH458762:GEH458765 GOD458762:GOD458765 GXZ458762:GXZ458765 HHV458762:HHV458765 HRR458762:HRR458765 IBN458762:IBN458765 ILJ458762:ILJ458765 IVF458762:IVF458765 JFB458762:JFB458765 JOX458762:JOX458765 JYT458762:JYT458765 KIP458762:KIP458765 KSL458762:KSL458765 LCH458762:LCH458765 LMD458762:LMD458765 LVZ458762:LVZ458765 MFV458762:MFV458765 MPR458762:MPR458765 MZN458762:MZN458765 NJJ458762:NJJ458765 NTF458762:NTF458765 ODB458762:ODB458765 OMX458762:OMX458765 OWT458762:OWT458765 PGP458762:PGP458765 PQL458762:PQL458765 QAH458762:QAH458765 QKD458762:QKD458765 QTZ458762:QTZ458765 RDV458762:RDV458765 RNR458762:RNR458765 RXN458762:RXN458765 SHJ458762:SHJ458765 SRF458762:SRF458765 TBB458762:TBB458765 TKX458762:TKX458765 TUT458762:TUT458765 UEP458762:UEP458765 UOL458762:UOL458765 UYH458762:UYH458765 VID458762:VID458765 VRZ458762:VRZ458765 WBV458762:WBV458765 WLR458762:WLR458765 WVN458762:WVN458765 F524298:F524301 JB524298:JB524301 SX524298:SX524301 ACT524298:ACT524301 AMP524298:AMP524301 AWL524298:AWL524301 BGH524298:BGH524301 BQD524298:BQD524301 BZZ524298:BZZ524301 CJV524298:CJV524301 CTR524298:CTR524301 DDN524298:DDN524301 DNJ524298:DNJ524301 DXF524298:DXF524301 EHB524298:EHB524301 EQX524298:EQX524301 FAT524298:FAT524301 FKP524298:FKP524301 FUL524298:FUL524301 GEH524298:GEH524301 GOD524298:GOD524301 GXZ524298:GXZ524301 HHV524298:HHV524301 HRR524298:HRR524301 IBN524298:IBN524301 ILJ524298:ILJ524301 IVF524298:IVF524301 JFB524298:JFB524301 JOX524298:JOX524301 JYT524298:JYT524301 KIP524298:KIP524301 KSL524298:KSL524301 LCH524298:LCH524301 LMD524298:LMD524301 LVZ524298:LVZ524301 MFV524298:MFV524301 MPR524298:MPR524301 MZN524298:MZN524301 NJJ524298:NJJ524301 NTF524298:NTF524301 ODB524298:ODB524301 OMX524298:OMX524301 OWT524298:OWT524301 PGP524298:PGP524301 PQL524298:PQL524301 QAH524298:QAH524301 QKD524298:QKD524301 QTZ524298:QTZ524301 RDV524298:RDV524301 RNR524298:RNR524301 RXN524298:RXN524301 SHJ524298:SHJ524301 SRF524298:SRF524301 TBB524298:TBB524301 TKX524298:TKX524301 TUT524298:TUT524301 UEP524298:UEP524301 UOL524298:UOL524301 UYH524298:UYH524301 VID524298:VID524301 VRZ524298:VRZ524301 WBV524298:WBV524301 WLR524298:WLR524301 WVN524298:WVN524301 F589834:F589837 JB589834:JB589837 SX589834:SX589837 ACT589834:ACT589837 AMP589834:AMP589837 AWL589834:AWL589837 BGH589834:BGH589837 BQD589834:BQD589837 BZZ589834:BZZ589837 CJV589834:CJV589837 CTR589834:CTR589837 DDN589834:DDN589837 DNJ589834:DNJ589837 DXF589834:DXF589837 EHB589834:EHB589837 EQX589834:EQX589837 FAT589834:FAT589837 FKP589834:FKP589837 FUL589834:FUL589837 GEH589834:GEH589837 GOD589834:GOD589837 GXZ589834:GXZ589837 HHV589834:HHV589837 HRR589834:HRR589837 IBN589834:IBN589837 ILJ589834:ILJ589837 IVF589834:IVF589837 JFB589834:JFB589837 JOX589834:JOX589837 JYT589834:JYT589837 KIP589834:KIP589837 KSL589834:KSL589837 LCH589834:LCH589837 LMD589834:LMD589837 LVZ589834:LVZ589837 MFV589834:MFV589837 MPR589834:MPR589837 MZN589834:MZN589837 NJJ589834:NJJ589837 NTF589834:NTF589837 ODB589834:ODB589837 OMX589834:OMX589837 OWT589834:OWT589837 PGP589834:PGP589837 PQL589834:PQL589837 QAH589834:QAH589837 QKD589834:QKD589837 QTZ589834:QTZ589837 RDV589834:RDV589837 RNR589834:RNR589837 RXN589834:RXN589837 SHJ589834:SHJ589837 SRF589834:SRF589837 TBB589834:TBB589837 TKX589834:TKX589837 TUT589834:TUT589837 UEP589834:UEP589837 UOL589834:UOL589837 UYH589834:UYH589837 VID589834:VID589837 VRZ589834:VRZ589837 WBV589834:WBV589837 WLR589834:WLR589837 WVN589834:WVN589837 F655370:F655373 JB655370:JB655373 SX655370:SX655373 ACT655370:ACT655373 AMP655370:AMP655373 AWL655370:AWL655373 BGH655370:BGH655373 BQD655370:BQD655373 BZZ655370:BZZ655373 CJV655370:CJV655373 CTR655370:CTR655373 DDN655370:DDN655373 DNJ655370:DNJ655373 DXF655370:DXF655373 EHB655370:EHB655373 EQX655370:EQX655373 FAT655370:FAT655373 FKP655370:FKP655373 FUL655370:FUL655373 GEH655370:GEH655373 GOD655370:GOD655373 GXZ655370:GXZ655373 HHV655370:HHV655373 HRR655370:HRR655373 IBN655370:IBN655373 ILJ655370:ILJ655373 IVF655370:IVF655373 JFB655370:JFB655373 JOX655370:JOX655373 JYT655370:JYT655373 KIP655370:KIP655373 KSL655370:KSL655373 LCH655370:LCH655373 LMD655370:LMD655373 LVZ655370:LVZ655373 MFV655370:MFV655373 MPR655370:MPR655373 MZN655370:MZN655373 NJJ655370:NJJ655373 NTF655370:NTF655373 ODB655370:ODB655373 OMX655370:OMX655373 OWT655370:OWT655373 PGP655370:PGP655373 PQL655370:PQL655373 QAH655370:QAH655373 QKD655370:QKD655373 QTZ655370:QTZ655373 RDV655370:RDV655373 RNR655370:RNR655373 RXN655370:RXN655373 SHJ655370:SHJ655373 SRF655370:SRF655373 TBB655370:TBB655373 TKX655370:TKX655373 TUT655370:TUT655373 UEP655370:UEP655373 UOL655370:UOL655373 UYH655370:UYH655373 VID655370:VID655373 VRZ655370:VRZ655373 WBV655370:WBV655373 WLR655370:WLR655373 WVN655370:WVN655373 F720906:F720909 JB720906:JB720909 SX720906:SX720909 ACT720906:ACT720909 AMP720906:AMP720909 AWL720906:AWL720909 BGH720906:BGH720909 BQD720906:BQD720909 BZZ720906:BZZ720909 CJV720906:CJV720909 CTR720906:CTR720909 DDN720906:DDN720909 DNJ720906:DNJ720909 DXF720906:DXF720909 EHB720906:EHB720909 EQX720906:EQX720909 FAT720906:FAT720909 FKP720906:FKP720909 FUL720906:FUL720909 GEH720906:GEH720909 GOD720906:GOD720909 GXZ720906:GXZ720909 HHV720906:HHV720909 HRR720906:HRR720909 IBN720906:IBN720909 ILJ720906:ILJ720909 IVF720906:IVF720909 JFB720906:JFB720909 JOX720906:JOX720909 JYT720906:JYT720909 KIP720906:KIP720909 KSL720906:KSL720909 LCH720906:LCH720909 LMD720906:LMD720909 LVZ720906:LVZ720909 MFV720906:MFV720909 MPR720906:MPR720909 MZN720906:MZN720909 NJJ720906:NJJ720909 NTF720906:NTF720909 ODB720906:ODB720909 OMX720906:OMX720909 OWT720906:OWT720909 PGP720906:PGP720909 PQL720906:PQL720909 QAH720906:QAH720909 QKD720906:QKD720909 QTZ720906:QTZ720909 RDV720906:RDV720909 RNR720906:RNR720909 RXN720906:RXN720909 SHJ720906:SHJ720909 SRF720906:SRF720909 TBB720906:TBB720909 TKX720906:TKX720909 TUT720906:TUT720909 UEP720906:UEP720909 UOL720906:UOL720909 UYH720906:UYH720909 VID720906:VID720909 VRZ720906:VRZ720909 WBV720906:WBV720909 WLR720906:WLR720909 WVN720906:WVN720909 F786442:F786445 JB786442:JB786445 SX786442:SX786445 ACT786442:ACT786445 AMP786442:AMP786445 AWL786442:AWL786445 BGH786442:BGH786445 BQD786442:BQD786445 BZZ786442:BZZ786445 CJV786442:CJV786445 CTR786442:CTR786445 DDN786442:DDN786445 DNJ786442:DNJ786445 DXF786442:DXF786445 EHB786442:EHB786445 EQX786442:EQX786445 FAT786442:FAT786445 FKP786442:FKP786445 FUL786442:FUL786445 GEH786442:GEH786445 GOD786442:GOD786445 GXZ786442:GXZ786445 HHV786442:HHV786445 HRR786442:HRR786445 IBN786442:IBN786445 ILJ786442:ILJ786445 IVF786442:IVF786445 JFB786442:JFB786445 JOX786442:JOX786445 JYT786442:JYT786445 KIP786442:KIP786445 KSL786442:KSL786445 LCH786442:LCH786445 LMD786442:LMD786445 LVZ786442:LVZ786445 MFV786442:MFV786445 MPR786442:MPR786445 MZN786442:MZN786445 NJJ786442:NJJ786445 NTF786442:NTF786445 ODB786442:ODB786445 OMX786442:OMX786445 OWT786442:OWT786445 PGP786442:PGP786445 PQL786442:PQL786445 QAH786442:QAH786445 QKD786442:QKD786445 QTZ786442:QTZ786445 RDV786442:RDV786445 RNR786442:RNR786445 RXN786442:RXN786445 SHJ786442:SHJ786445 SRF786442:SRF786445 TBB786442:TBB786445 TKX786442:TKX786445 TUT786442:TUT786445 UEP786442:UEP786445 UOL786442:UOL786445 UYH786442:UYH786445 VID786442:VID786445 VRZ786442:VRZ786445 WBV786442:WBV786445 WLR786442:WLR786445 WVN786442:WVN786445 F851978:F851981 JB851978:JB851981 SX851978:SX851981 ACT851978:ACT851981 AMP851978:AMP851981 AWL851978:AWL851981 BGH851978:BGH851981 BQD851978:BQD851981 BZZ851978:BZZ851981 CJV851978:CJV851981 CTR851978:CTR851981 DDN851978:DDN851981 DNJ851978:DNJ851981 DXF851978:DXF851981 EHB851978:EHB851981 EQX851978:EQX851981 FAT851978:FAT851981 FKP851978:FKP851981 FUL851978:FUL851981 GEH851978:GEH851981 GOD851978:GOD851981 GXZ851978:GXZ851981 HHV851978:HHV851981 HRR851978:HRR851981 IBN851978:IBN851981 ILJ851978:ILJ851981 IVF851978:IVF851981 JFB851978:JFB851981 JOX851978:JOX851981 JYT851978:JYT851981 KIP851978:KIP851981 KSL851978:KSL851981 LCH851978:LCH851981 LMD851978:LMD851981 LVZ851978:LVZ851981 MFV851978:MFV851981 MPR851978:MPR851981 MZN851978:MZN851981 NJJ851978:NJJ851981 NTF851978:NTF851981 ODB851978:ODB851981 OMX851978:OMX851981 OWT851978:OWT851981 PGP851978:PGP851981 PQL851978:PQL851981 QAH851978:QAH851981 QKD851978:QKD851981 QTZ851978:QTZ851981 RDV851978:RDV851981 RNR851978:RNR851981 RXN851978:RXN851981 SHJ851978:SHJ851981 SRF851978:SRF851981 TBB851978:TBB851981 TKX851978:TKX851981 TUT851978:TUT851981 UEP851978:UEP851981 UOL851978:UOL851981 UYH851978:UYH851981 VID851978:VID851981 VRZ851978:VRZ851981 WBV851978:WBV851981 WLR851978:WLR851981 WVN851978:WVN851981 F917514:F917517 JB917514:JB917517 SX917514:SX917517 ACT917514:ACT917517 AMP917514:AMP917517 AWL917514:AWL917517 BGH917514:BGH917517 BQD917514:BQD917517 BZZ917514:BZZ917517 CJV917514:CJV917517 CTR917514:CTR917517 DDN917514:DDN917517 DNJ917514:DNJ917517 DXF917514:DXF917517 EHB917514:EHB917517 EQX917514:EQX917517 FAT917514:FAT917517 FKP917514:FKP917517 FUL917514:FUL917517 GEH917514:GEH917517 GOD917514:GOD917517 GXZ917514:GXZ917517 HHV917514:HHV917517 HRR917514:HRR917517 IBN917514:IBN917517 ILJ917514:ILJ917517 IVF917514:IVF917517 JFB917514:JFB917517 JOX917514:JOX917517 JYT917514:JYT917517 KIP917514:KIP917517 KSL917514:KSL917517 LCH917514:LCH917517 LMD917514:LMD917517 LVZ917514:LVZ917517 MFV917514:MFV917517 MPR917514:MPR917517 MZN917514:MZN917517 NJJ917514:NJJ917517 NTF917514:NTF917517 ODB917514:ODB917517 OMX917514:OMX917517 OWT917514:OWT917517 PGP917514:PGP917517 PQL917514:PQL917517 QAH917514:QAH917517 QKD917514:QKD917517 QTZ917514:QTZ917517 RDV917514:RDV917517 RNR917514:RNR917517 RXN917514:RXN917517 SHJ917514:SHJ917517 SRF917514:SRF917517 TBB917514:TBB917517 TKX917514:TKX917517 TUT917514:TUT917517 UEP917514:UEP917517 UOL917514:UOL917517 UYH917514:UYH917517 VID917514:VID917517 VRZ917514:VRZ917517 WBV917514:WBV917517 WLR917514:WLR917517 WVN917514:WVN917517 F983050:F983053 JB983050:JB983053 SX983050:SX983053 ACT983050:ACT983053 AMP983050:AMP983053 AWL983050:AWL983053 BGH983050:BGH983053 BQD983050:BQD983053 BZZ983050:BZZ983053 CJV983050:CJV983053 CTR983050:CTR983053 DDN983050:DDN983053 DNJ983050:DNJ983053 DXF983050:DXF983053 EHB983050:EHB983053 EQX983050:EQX983053 FAT983050:FAT983053 FKP983050:FKP983053 FUL983050:FUL983053 GEH983050:GEH983053 GOD983050:GOD983053 GXZ983050:GXZ983053 HHV983050:HHV983053 HRR983050:HRR983053 IBN983050:IBN983053 ILJ983050:ILJ983053 IVF983050:IVF983053 JFB983050:JFB983053 JOX983050:JOX983053 JYT983050:JYT983053 KIP983050:KIP983053 KSL983050:KSL983053 LCH983050:LCH983053 LMD983050:LMD983053 LVZ983050:LVZ983053 MFV983050:MFV983053 MPR983050:MPR983053 MZN983050:MZN983053 NJJ983050:NJJ983053 NTF983050:NTF983053 ODB983050:ODB983053 OMX983050:OMX983053 OWT983050:OWT983053 PGP983050:PGP983053 PQL983050:PQL983053 QAH983050:QAH983053 QKD983050:QKD983053 QTZ983050:QTZ983053 RDV983050:RDV983053 RNR983050:RNR983053 RXN983050:RXN983053 SHJ983050:SHJ983053 SRF983050:SRF983053 TBB983050:TBB983053 TKX983050:TKX983053 TUT983050:TUT983053 UEP983050:UEP983053 UOL983050:UOL983053 UYH983050:UYH983053 VID983050:VID983053 VRZ983050:VRZ983053 WBV983050:WBV983053 WLR983050:WLR983053 WVN983050:WVN983053">
-      <formula1>"On-hold, On-going, Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983052:WVK983053 IY12:IY13 SU12:SU13 ACQ12:ACQ13 AMM12:AMM13 AWI12:AWI13 BGE12:BGE13 BQA12:BQA13 BZW12:BZW13 CJS12:CJS13 CTO12:CTO13 DDK12:DDK13 DNG12:DNG13 DXC12:DXC13 EGY12:EGY13 EQU12:EQU13 FAQ12:FAQ13 FKM12:FKM13 FUI12:FUI13 GEE12:GEE13 GOA12:GOA13 GXW12:GXW13 HHS12:HHS13 HRO12:HRO13 IBK12:IBK13 ILG12:ILG13 IVC12:IVC13 JEY12:JEY13 JOU12:JOU13 JYQ12:JYQ13 KIM12:KIM13 KSI12:KSI13 LCE12:LCE13 LMA12:LMA13 LVW12:LVW13 MFS12:MFS13 MPO12:MPO13 MZK12:MZK13 NJG12:NJG13 NTC12:NTC13 OCY12:OCY13 OMU12:OMU13 OWQ12:OWQ13 PGM12:PGM13 PQI12:PQI13 QAE12:QAE13 QKA12:QKA13 QTW12:QTW13 RDS12:RDS13 RNO12:RNO13 RXK12:RXK13 SHG12:SHG13 SRC12:SRC13 TAY12:TAY13 TKU12:TKU13 TUQ12:TUQ13 UEM12:UEM13 UOI12:UOI13 UYE12:UYE13 VIA12:VIA13 VRW12:VRW13 WBS12:WBS13 WLO12:WLO13 WVK12:WVK13 C65548:C65549 IY65548:IY65549 SU65548:SU65549 ACQ65548:ACQ65549 AMM65548:AMM65549 AWI65548:AWI65549 BGE65548:BGE65549 BQA65548:BQA65549 BZW65548:BZW65549 CJS65548:CJS65549 CTO65548:CTO65549 DDK65548:DDK65549 DNG65548:DNG65549 DXC65548:DXC65549 EGY65548:EGY65549 EQU65548:EQU65549 FAQ65548:FAQ65549 FKM65548:FKM65549 FUI65548:FUI65549 GEE65548:GEE65549 GOA65548:GOA65549 GXW65548:GXW65549 HHS65548:HHS65549 HRO65548:HRO65549 IBK65548:IBK65549 ILG65548:ILG65549 IVC65548:IVC65549 JEY65548:JEY65549 JOU65548:JOU65549 JYQ65548:JYQ65549 KIM65548:KIM65549 KSI65548:KSI65549 LCE65548:LCE65549 LMA65548:LMA65549 LVW65548:LVW65549 MFS65548:MFS65549 MPO65548:MPO65549 MZK65548:MZK65549 NJG65548:NJG65549 NTC65548:NTC65549 OCY65548:OCY65549 OMU65548:OMU65549 OWQ65548:OWQ65549 PGM65548:PGM65549 PQI65548:PQI65549 QAE65548:QAE65549 QKA65548:QKA65549 QTW65548:QTW65549 RDS65548:RDS65549 RNO65548:RNO65549 RXK65548:RXK65549 SHG65548:SHG65549 SRC65548:SRC65549 TAY65548:TAY65549 TKU65548:TKU65549 TUQ65548:TUQ65549 UEM65548:UEM65549 UOI65548:UOI65549 UYE65548:UYE65549 VIA65548:VIA65549 VRW65548:VRW65549 WBS65548:WBS65549 WLO65548:WLO65549 WVK65548:WVK65549 C131084:C131085 IY131084:IY131085 SU131084:SU131085 ACQ131084:ACQ131085 AMM131084:AMM131085 AWI131084:AWI131085 BGE131084:BGE131085 BQA131084:BQA131085 BZW131084:BZW131085 CJS131084:CJS131085 CTO131084:CTO131085 DDK131084:DDK131085 DNG131084:DNG131085 DXC131084:DXC131085 EGY131084:EGY131085 EQU131084:EQU131085 FAQ131084:FAQ131085 FKM131084:FKM131085 FUI131084:FUI131085 GEE131084:GEE131085 GOA131084:GOA131085 GXW131084:GXW131085 HHS131084:HHS131085 HRO131084:HRO131085 IBK131084:IBK131085 ILG131084:ILG131085 IVC131084:IVC131085 JEY131084:JEY131085 JOU131084:JOU131085 JYQ131084:JYQ131085 KIM131084:KIM131085 KSI131084:KSI131085 LCE131084:LCE131085 LMA131084:LMA131085 LVW131084:LVW131085 MFS131084:MFS131085 MPO131084:MPO131085 MZK131084:MZK131085 NJG131084:NJG131085 NTC131084:NTC131085 OCY131084:OCY131085 OMU131084:OMU131085 OWQ131084:OWQ131085 PGM131084:PGM131085 PQI131084:PQI131085 QAE131084:QAE131085 QKA131084:QKA131085 QTW131084:QTW131085 RDS131084:RDS131085 RNO131084:RNO131085 RXK131084:RXK131085 SHG131084:SHG131085 SRC131084:SRC131085 TAY131084:TAY131085 TKU131084:TKU131085 TUQ131084:TUQ131085 UEM131084:UEM131085 UOI131084:UOI131085 UYE131084:UYE131085 VIA131084:VIA131085 VRW131084:VRW131085 WBS131084:WBS131085 WLO131084:WLO131085 WVK131084:WVK131085 C196620:C196621 IY196620:IY196621 SU196620:SU196621 ACQ196620:ACQ196621 AMM196620:AMM196621 AWI196620:AWI196621 BGE196620:BGE196621 BQA196620:BQA196621 BZW196620:BZW196621 CJS196620:CJS196621 CTO196620:CTO196621 DDK196620:DDK196621 DNG196620:DNG196621 DXC196620:DXC196621 EGY196620:EGY196621 EQU196620:EQU196621 FAQ196620:FAQ196621 FKM196620:FKM196621 FUI196620:FUI196621 GEE196620:GEE196621 GOA196620:GOA196621 GXW196620:GXW196621 HHS196620:HHS196621 HRO196620:HRO196621 IBK196620:IBK196621 ILG196620:ILG196621 IVC196620:IVC196621 JEY196620:JEY196621 JOU196620:JOU196621 JYQ196620:JYQ196621 KIM196620:KIM196621 KSI196620:KSI196621 LCE196620:LCE196621 LMA196620:LMA196621 LVW196620:LVW196621 MFS196620:MFS196621 MPO196620:MPO196621 MZK196620:MZK196621 NJG196620:NJG196621 NTC196620:NTC196621 OCY196620:OCY196621 OMU196620:OMU196621 OWQ196620:OWQ196621 PGM196620:PGM196621 PQI196620:PQI196621 QAE196620:QAE196621 QKA196620:QKA196621 QTW196620:QTW196621 RDS196620:RDS196621 RNO196620:RNO196621 RXK196620:RXK196621 SHG196620:SHG196621 SRC196620:SRC196621 TAY196620:TAY196621 TKU196620:TKU196621 TUQ196620:TUQ196621 UEM196620:UEM196621 UOI196620:UOI196621 UYE196620:UYE196621 VIA196620:VIA196621 VRW196620:VRW196621 WBS196620:WBS196621 WLO196620:WLO196621 WVK196620:WVK196621 C262156:C262157 IY262156:IY262157 SU262156:SU262157 ACQ262156:ACQ262157 AMM262156:AMM262157 AWI262156:AWI262157 BGE262156:BGE262157 BQA262156:BQA262157 BZW262156:BZW262157 CJS262156:CJS262157 CTO262156:CTO262157 DDK262156:DDK262157 DNG262156:DNG262157 DXC262156:DXC262157 EGY262156:EGY262157 EQU262156:EQU262157 FAQ262156:FAQ262157 FKM262156:FKM262157 FUI262156:FUI262157 GEE262156:GEE262157 GOA262156:GOA262157 GXW262156:GXW262157 HHS262156:HHS262157 HRO262156:HRO262157 IBK262156:IBK262157 ILG262156:ILG262157 IVC262156:IVC262157 JEY262156:JEY262157 JOU262156:JOU262157 JYQ262156:JYQ262157 KIM262156:KIM262157 KSI262156:KSI262157 LCE262156:LCE262157 LMA262156:LMA262157 LVW262156:LVW262157 MFS262156:MFS262157 MPO262156:MPO262157 MZK262156:MZK262157 NJG262156:NJG262157 NTC262156:NTC262157 OCY262156:OCY262157 OMU262156:OMU262157 OWQ262156:OWQ262157 PGM262156:PGM262157 PQI262156:PQI262157 QAE262156:QAE262157 QKA262156:QKA262157 QTW262156:QTW262157 RDS262156:RDS262157 RNO262156:RNO262157 RXK262156:RXK262157 SHG262156:SHG262157 SRC262156:SRC262157 TAY262156:TAY262157 TKU262156:TKU262157 TUQ262156:TUQ262157 UEM262156:UEM262157 UOI262156:UOI262157 UYE262156:UYE262157 VIA262156:VIA262157 VRW262156:VRW262157 WBS262156:WBS262157 WLO262156:WLO262157 WVK262156:WVK262157 C327692:C327693 IY327692:IY327693 SU327692:SU327693 ACQ327692:ACQ327693 AMM327692:AMM327693 AWI327692:AWI327693 BGE327692:BGE327693 BQA327692:BQA327693 BZW327692:BZW327693 CJS327692:CJS327693 CTO327692:CTO327693 DDK327692:DDK327693 DNG327692:DNG327693 DXC327692:DXC327693 EGY327692:EGY327693 EQU327692:EQU327693 FAQ327692:FAQ327693 FKM327692:FKM327693 FUI327692:FUI327693 GEE327692:GEE327693 GOA327692:GOA327693 GXW327692:GXW327693 HHS327692:HHS327693 HRO327692:HRO327693 IBK327692:IBK327693 ILG327692:ILG327693 IVC327692:IVC327693 JEY327692:JEY327693 JOU327692:JOU327693 JYQ327692:JYQ327693 KIM327692:KIM327693 KSI327692:KSI327693 LCE327692:LCE327693 LMA327692:LMA327693 LVW327692:LVW327693 MFS327692:MFS327693 MPO327692:MPO327693 MZK327692:MZK327693 NJG327692:NJG327693 NTC327692:NTC327693 OCY327692:OCY327693 OMU327692:OMU327693 OWQ327692:OWQ327693 PGM327692:PGM327693 PQI327692:PQI327693 QAE327692:QAE327693 QKA327692:QKA327693 QTW327692:QTW327693 RDS327692:RDS327693 RNO327692:RNO327693 RXK327692:RXK327693 SHG327692:SHG327693 SRC327692:SRC327693 TAY327692:TAY327693 TKU327692:TKU327693 TUQ327692:TUQ327693 UEM327692:UEM327693 UOI327692:UOI327693 UYE327692:UYE327693 VIA327692:VIA327693 VRW327692:VRW327693 WBS327692:WBS327693 WLO327692:WLO327693 WVK327692:WVK327693 C393228:C393229 IY393228:IY393229 SU393228:SU393229 ACQ393228:ACQ393229 AMM393228:AMM393229 AWI393228:AWI393229 BGE393228:BGE393229 BQA393228:BQA393229 BZW393228:BZW393229 CJS393228:CJS393229 CTO393228:CTO393229 DDK393228:DDK393229 DNG393228:DNG393229 DXC393228:DXC393229 EGY393228:EGY393229 EQU393228:EQU393229 FAQ393228:FAQ393229 FKM393228:FKM393229 FUI393228:FUI393229 GEE393228:GEE393229 GOA393228:GOA393229 GXW393228:GXW393229 HHS393228:HHS393229 HRO393228:HRO393229 IBK393228:IBK393229 ILG393228:ILG393229 IVC393228:IVC393229 JEY393228:JEY393229 JOU393228:JOU393229 JYQ393228:JYQ393229 KIM393228:KIM393229 KSI393228:KSI393229 LCE393228:LCE393229 LMA393228:LMA393229 LVW393228:LVW393229 MFS393228:MFS393229 MPO393228:MPO393229 MZK393228:MZK393229 NJG393228:NJG393229 NTC393228:NTC393229 OCY393228:OCY393229 OMU393228:OMU393229 OWQ393228:OWQ393229 PGM393228:PGM393229 PQI393228:PQI393229 QAE393228:QAE393229 QKA393228:QKA393229 QTW393228:QTW393229 RDS393228:RDS393229 RNO393228:RNO393229 RXK393228:RXK393229 SHG393228:SHG393229 SRC393228:SRC393229 TAY393228:TAY393229 TKU393228:TKU393229 TUQ393228:TUQ393229 UEM393228:UEM393229 UOI393228:UOI393229 UYE393228:UYE393229 VIA393228:VIA393229 VRW393228:VRW393229 WBS393228:WBS393229 WLO393228:WLO393229 WVK393228:WVK393229 C458764:C458765 IY458764:IY458765 SU458764:SU458765 ACQ458764:ACQ458765 AMM458764:AMM458765 AWI458764:AWI458765 BGE458764:BGE458765 BQA458764:BQA458765 BZW458764:BZW458765 CJS458764:CJS458765 CTO458764:CTO458765 DDK458764:DDK458765 DNG458764:DNG458765 DXC458764:DXC458765 EGY458764:EGY458765 EQU458764:EQU458765 FAQ458764:FAQ458765 FKM458764:FKM458765 FUI458764:FUI458765 GEE458764:GEE458765 GOA458764:GOA458765 GXW458764:GXW458765 HHS458764:HHS458765 HRO458764:HRO458765 IBK458764:IBK458765 ILG458764:ILG458765 IVC458764:IVC458765 JEY458764:JEY458765 JOU458764:JOU458765 JYQ458764:JYQ458765 KIM458764:KIM458765 KSI458764:KSI458765 LCE458764:LCE458765 LMA458764:LMA458765 LVW458764:LVW458765 MFS458764:MFS458765 MPO458764:MPO458765 MZK458764:MZK458765 NJG458764:NJG458765 NTC458764:NTC458765 OCY458764:OCY458765 OMU458764:OMU458765 OWQ458764:OWQ458765 PGM458764:PGM458765 PQI458764:PQI458765 QAE458764:QAE458765 QKA458764:QKA458765 QTW458764:QTW458765 RDS458764:RDS458765 RNO458764:RNO458765 RXK458764:RXK458765 SHG458764:SHG458765 SRC458764:SRC458765 TAY458764:TAY458765 TKU458764:TKU458765 TUQ458764:TUQ458765 UEM458764:UEM458765 UOI458764:UOI458765 UYE458764:UYE458765 VIA458764:VIA458765 VRW458764:VRW458765 WBS458764:WBS458765 WLO458764:WLO458765 WVK458764:WVK458765 C524300:C524301 IY524300:IY524301 SU524300:SU524301 ACQ524300:ACQ524301 AMM524300:AMM524301 AWI524300:AWI524301 BGE524300:BGE524301 BQA524300:BQA524301 BZW524300:BZW524301 CJS524300:CJS524301 CTO524300:CTO524301 DDK524300:DDK524301 DNG524300:DNG524301 DXC524300:DXC524301 EGY524300:EGY524301 EQU524300:EQU524301 FAQ524300:FAQ524301 FKM524300:FKM524301 FUI524300:FUI524301 GEE524300:GEE524301 GOA524300:GOA524301 GXW524300:GXW524301 HHS524300:HHS524301 HRO524300:HRO524301 IBK524300:IBK524301 ILG524300:ILG524301 IVC524300:IVC524301 JEY524300:JEY524301 JOU524300:JOU524301 JYQ524300:JYQ524301 KIM524300:KIM524301 KSI524300:KSI524301 LCE524300:LCE524301 LMA524300:LMA524301 LVW524300:LVW524301 MFS524300:MFS524301 MPO524300:MPO524301 MZK524300:MZK524301 NJG524300:NJG524301 NTC524300:NTC524301 OCY524300:OCY524301 OMU524300:OMU524301 OWQ524300:OWQ524301 PGM524300:PGM524301 PQI524300:PQI524301 QAE524300:QAE524301 QKA524300:QKA524301 QTW524300:QTW524301 RDS524300:RDS524301 RNO524300:RNO524301 RXK524300:RXK524301 SHG524300:SHG524301 SRC524300:SRC524301 TAY524300:TAY524301 TKU524300:TKU524301 TUQ524300:TUQ524301 UEM524300:UEM524301 UOI524300:UOI524301 UYE524300:UYE524301 VIA524300:VIA524301 VRW524300:VRW524301 WBS524300:WBS524301 WLO524300:WLO524301 WVK524300:WVK524301 C589836:C589837 IY589836:IY589837 SU589836:SU589837 ACQ589836:ACQ589837 AMM589836:AMM589837 AWI589836:AWI589837 BGE589836:BGE589837 BQA589836:BQA589837 BZW589836:BZW589837 CJS589836:CJS589837 CTO589836:CTO589837 DDK589836:DDK589837 DNG589836:DNG589837 DXC589836:DXC589837 EGY589836:EGY589837 EQU589836:EQU589837 FAQ589836:FAQ589837 FKM589836:FKM589837 FUI589836:FUI589837 GEE589836:GEE589837 GOA589836:GOA589837 GXW589836:GXW589837 HHS589836:HHS589837 HRO589836:HRO589837 IBK589836:IBK589837 ILG589836:ILG589837 IVC589836:IVC589837 JEY589836:JEY589837 JOU589836:JOU589837 JYQ589836:JYQ589837 KIM589836:KIM589837 KSI589836:KSI589837 LCE589836:LCE589837 LMA589836:LMA589837 LVW589836:LVW589837 MFS589836:MFS589837 MPO589836:MPO589837 MZK589836:MZK589837 NJG589836:NJG589837 NTC589836:NTC589837 OCY589836:OCY589837 OMU589836:OMU589837 OWQ589836:OWQ589837 PGM589836:PGM589837 PQI589836:PQI589837 QAE589836:QAE589837 QKA589836:QKA589837 QTW589836:QTW589837 RDS589836:RDS589837 RNO589836:RNO589837 RXK589836:RXK589837 SHG589836:SHG589837 SRC589836:SRC589837 TAY589836:TAY589837 TKU589836:TKU589837 TUQ589836:TUQ589837 UEM589836:UEM589837 UOI589836:UOI589837 UYE589836:UYE589837 VIA589836:VIA589837 VRW589836:VRW589837 WBS589836:WBS589837 WLO589836:WLO589837 WVK589836:WVK589837 C655372:C655373 IY655372:IY655373 SU655372:SU655373 ACQ655372:ACQ655373 AMM655372:AMM655373 AWI655372:AWI655373 BGE655372:BGE655373 BQA655372:BQA655373 BZW655372:BZW655373 CJS655372:CJS655373 CTO655372:CTO655373 DDK655372:DDK655373 DNG655372:DNG655373 DXC655372:DXC655373 EGY655372:EGY655373 EQU655372:EQU655373 FAQ655372:FAQ655373 FKM655372:FKM655373 FUI655372:FUI655373 GEE655372:GEE655373 GOA655372:GOA655373 GXW655372:GXW655373 HHS655372:HHS655373 HRO655372:HRO655373 IBK655372:IBK655373 ILG655372:ILG655373 IVC655372:IVC655373 JEY655372:JEY655373 JOU655372:JOU655373 JYQ655372:JYQ655373 KIM655372:KIM655373 KSI655372:KSI655373 LCE655372:LCE655373 LMA655372:LMA655373 LVW655372:LVW655373 MFS655372:MFS655373 MPO655372:MPO655373 MZK655372:MZK655373 NJG655372:NJG655373 NTC655372:NTC655373 OCY655372:OCY655373 OMU655372:OMU655373 OWQ655372:OWQ655373 PGM655372:PGM655373 PQI655372:PQI655373 QAE655372:QAE655373 QKA655372:QKA655373 QTW655372:QTW655373 RDS655372:RDS655373 RNO655372:RNO655373 RXK655372:RXK655373 SHG655372:SHG655373 SRC655372:SRC655373 TAY655372:TAY655373 TKU655372:TKU655373 TUQ655372:TUQ655373 UEM655372:UEM655373 UOI655372:UOI655373 UYE655372:UYE655373 VIA655372:VIA655373 VRW655372:VRW655373 WBS655372:WBS655373 WLO655372:WLO655373 WVK655372:WVK655373 C720908:C720909 IY720908:IY720909 SU720908:SU720909 ACQ720908:ACQ720909 AMM720908:AMM720909 AWI720908:AWI720909 BGE720908:BGE720909 BQA720908:BQA720909 BZW720908:BZW720909 CJS720908:CJS720909 CTO720908:CTO720909 DDK720908:DDK720909 DNG720908:DNG720909 DXC720908:DXC720909 EGY720908:EGY720909 EQU720908:EQU720909 FAQ720908:FAQ720909 FKM720908:FKM720909 FUI720908:FUI720909 GEE720908:GEE720909 GOA720908:GOA720909 GXW720908:GXW720909 HHS720908:HHS720909 HRO720908:HRO720909 IBK720908:IBK720909 ILG720908:ILG720909 IVC720908:IVC720909 JEY720908:JEY720909 JOU720908:JOU720909 JYQ720908:JYQ720909 KIM720908:KIM720909 KSI720908:KSI720909 LCE720908:LCE720909 LMA720908:LMA720909 LVW720908:LVW720909 MFS720908:MFS720909 MPO720908:MPO720909 MZK720908:MZK720909 NJG720908:NJG720909 NTC720908:NTC720909 OCY720908:OCY720909 OMU720908:OMU720909 OWQ720908:OWQ720909 PGM720908:PGM720909 PQI720908:PQI720909 QAE720908:QAE720909 QKA720908:QKA720909 QTW720908:QTW720909 RDS720908:RDS720909 RNO720908:RNO720909 RXK720908:RXK720909 SHG720908:SHG720909 SRC720908:SRC720909 TAY720908:TAY720909 TKU720908:TKU720909 TUQ720908:TUQ720909 UEM720908:UEM720909 UOI720908:UOI720909 UYE720908:UYE720909 VIA720908:VIA720909 VRW720908:VRW720909 WBS720908:WBS720909 WLO720908:WLO720909 WVK720908:WVK720909 C786444:C786445 IY786444:IY786445 SU786444:SU786445 ACQ786444:ACQ786445 AMM786444:AMM786445 AWI786444:AWI786445 BGE786444:BGE786445 BQA786444:BQA786445 BZW786444:BZW786445 CJS786444:CJS786445 CTO786444:CTO786445 DDK786444:DDK786445 DNG786444:DNG786445 DXC786444:DXC786445 EGY786444:EGY786445 EQU786444:EQU786445 FAQ786444:FAQ786445 FKM786444:FKM786445 FUI786444:FUI786445 GEE786444:GEE786445 GOA786444:GOA786445 GXW786444:GXW786445 HHS786444:HHS786445 HRO786444:HRO786445 IBK786444:IBK786445 ILG786444:ILG786445 IVC786444:IVC786445 JEY786444:JEY786445 JOU786444:JOU786445 JYQ786444:JYQ786445 KIM786444:KIM786445 KSI786444:KSI786445 LCE786444:LCE786445 LMA786444:LMA786445 LVW786444:LVW786445 MFS786444:MFS786445 MPO786444:MPO786445 MZK786444:MZK786445 NJG786444:NJG786445 NTC786444:NTC786445 OCY786444:OCY786445 OMU786444:OMU786445 OWQ786444:OWQ786445 PGM786444:PGM786445 PQI786444:PQI786445 QAE786444:QAE786445 QKA786444:QKA786445 QTW786444:QTW786445 RDS786444:RDS786445 RNO786444:RNO786445 RXK786444:RXK786445 SHG786444:SHG786445 SRC786444:SRC786445 TAY786444:TAY786445 TKU786444:TKU786445 TUQ786444:TUQ786445 UEM786444:UEM786445 UOI786444:UOI786445 UYE786444:UYE786445 VIA786444:VIA786445 VRW786444:VRW786445 WBS786444:WBS786445 WLO786444:WLO786445 WVK786444:WVK786445 C851980:C851981 IY851980:IY851981 SU851980:SU851981 ACQ851980:ACQ851981 AMM851980:AMM851981 AWI851980:AWI851981 BGE851980:BGE851981 BQA851980:BQA851981 BZW851980:BZW851981 CJS851980:CJS851981 CTO851980:CTO851981 DDK851980:DDK851981 DNG851980:DNG851981 DXC851980:DXC851981 EGY851980:EGY851981 EQU851980:EQU851981 FAQ851980:FAQ851981 FKM851980:FKM851981 FUI851980:FUI851981 GEE851980:GEE851981 GOA851980:GOA851981 GXW851980:GXW851981 HHS851980:HHS851981 HRO851980:HRO851981 IBK851980:IBK851981 ILG851980:ILG851981 IVC851980:IVC851981 JEY851980:JEY851981 JOU851980:JOU851981 JYQ851980:JYQ851981 KIM851980:KIM851981 KSI851980:KSI851981 LCE851980:LCE851981 LMA851980:LMA851981 LVW851980:LVW851981 MFS851980:MFS851981 MPO851980:MPO851981 MZK851980:MZK851981 NJG851980:NJG851981 NTC851980:NTC851981 OCY851980:OCY851981 OMU851980:OMU851981 OWQ851980:OWQ851981 PGM851980:PGM851981 PQI851980:PQI851981 QAE851980:QAE851981 QKA851980:QKA851981 QTW851980:QTW851981 RDS851980:RDS851981 RNO851980:RNO851981 RXK851980:RXK851981 SHG851980:SHG851981 SRC851980:SRC851981 TAY851980:TAY851981 TKU851980:TKU851981 TUQ851980:TUQ851981 UEM851980:UEM851981 UOI851980:UOI851981 UYE851980:UYE851981 VIA851980:VIA851981 VRW851980:VRW851981 WBS851980:WBS851981 WLO851980:WLO851981 WVK851980:WVK851981 C917516:C917517 IY917516:IY917517 SU917516:SU917517 ACQ917516:ACQ917517 AMM917516:AMM917517 AWI917516:AWI917517 BGE917516:BGE917517 BQA917516:BQA917517 BZW917516:BZW917517 CJS917516:CJS917517 CTO917516:CTO917517 DDK917516:DDK917517 DNG917516:DNG917517 DXC917516:DXC917517 EGY917516:EGY917517 EQU917516:EQU917517 FAQ917516:FAQ917517 FKM917516:FKM917517 FUI917516:FUI917517 GEE917516:GEE917517 GOA917516:GOA917517 GXW917516:GXW917517 HHS917516:HHS917517 HRO917516:HRO917517 IBK917516:IBK917517 ILG917516:ILG917517 IVC917516:IVC917517 JEY917516:JEY917517 JOU917516:JOU917517 JYQ917516:JYQ917517 KIM917516:KIM917517 KSI917516:KSI917517 LCE917516:LCE917517 LMA917516:LMA917517 LVW917516:LVW917517 MFS917516:MFS917517 MPO917516:MPO917517 MZK917516:MZK917517 NJG917516:NJG917517 NTC917516:NTC917517 OCY917516:OCY917517 OMU917516:OMU917517 OWQ917516:OWQ917517 PGM917516:PGM917517 PQI917516:PQI917517 QAE917516:QAE917517 QKA917516:QKA917517 QTW917516:QTW917517 RDS917516:RDS917517 RNO917516:RNO917517 RXK917516:RXK917517 SHG917516:SHG917517 SRC917516:SRC917517 TAY917516:TAY917517 TKU917516:TKU917517 TUQ917516:TUQ917517 UEM917516:UEM917517 UOI917516:UOI917517 UYE917516:UYE917517 VIA917516:VIA917517 VRW917516:VRW917517 WBS917516:WBS917517 WLO917516:WLO917517 WVK917516:WVK917517 C983052:C983053 IY983052:IY983053 SU983052:SU983053 ACQ983052:ACQ983053 AMM983052:AMM983053 AWI983052:AWI983053 BGE983052:BGE983053 BQA983052:BQA983053 BZW983052:BZW983053 CJS983052:CJS983053 CTO983052:CTO983053 DDK983052:DDK983053 DNG983052:DNG983053 DXC983052:DXC983053 EGY983052:EGY983053 EQU983052:EQU983053 FAQ983052:FAQ983053 FKM983052:FKM983053 FUI983052:FUI983053 GEE983052:GEE983053 GOA983052:GOA983053 GXW983052:GXW983053 HHS983052:HHS983053 HRO983052:HRO983053 IBK983052:IBK983053 ILG983052:ILG983053 IVC983052:IVC983053 JEY983052:JEY983053 JOU983052:JOU983053 JYQ983052:JYQ983053 KIM983052:KIM983053 KSI983052:KSI983053 LCE983052:LCE983053 LMA983052:LMA983053 LVW983052:LVW983053 MFS983052:MFS983053 MPO983052:MPO983053 MZK983052:MZK983053 NJG983052:NJG983053 NTC983052:NTC983053 OCY983052:OCY983053 OMU983052:OMU983053 OWQ983052:OWQ983053 PGM983052:PGM983053 PQI983052:PQI983053 QAE983052:QAE983053 QKA983052:QKA983053 QTW983052:QTW983053 RDS983052:RDS983053 RNO983052:RNO983053 RXK983052:RXK983053 SHG983052:SHG983053 SRC983052:SRC983053 TAY983052:TAY983053 TKU983052:TKU983053 TUQ983052:TUQ983053 UEM983052:UEM983053 UOI983052:UOI983053 UYE983052:UYE983053 VIA983052:VIA983053 VRW983052:VRW983053 WBS983052:WBS983053 WLO983052:WLO983053">
-      <formula1>"Low, Medium, High"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Team member'!$B$1:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>I17:I19 I10:I13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="64" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="64" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="64"/>
-    <col min="8" max="8" width="41.28515625" style="64" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="64" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="64"/>
-    <col min="257" max="257" width="14.140625" style="64" customWidth="1"/>
-    <col min="258" max="258" width="51.7109375" style="64" customWidth="1"/>
-    <col min="259" max="259" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="14.42578125" style="64" customWidth="1"/>
-    <col min="261" max="261" width="17.85546875" style="64" customWidth="1"/>
-    <col min="262" max="262" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="9.140625" style="64"/>
-    <col min="264" max="264" width="41.28515625" style="64" customWidth="1"/>
-    <col min="265" max="265" width="24.5703125" style="64" customWidth="1"/>
-    <col min="266" max="512" width="9.140625" style="64"/>
-    <col min="513" max="513" width="14.140625" style="64" customWidth="1"/>
-    <col min="514" max="514" width="51.7109375" style="64" customWidth="1"/>
-    <col min="515" max="515" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="14.42578125" style="64" customWidth="1"/>
-    <col min="517" max="517" width="17.85546875" style="64" customWidth="1"/>
-    <col min="518" max="518" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="9.140625" style="64"/>
-    <col min="520" max="520" width="41.28515625" style="64" customWidth="1"/>
-    <col min="521" max="521" width="24.5703125" style="64" customWidth="1"/>
-    <col min="522" max="768" width="9.140625" style="64"/>
-    <col min="769" max="769" width="14.140625" style="64" customWidth="1"/>
-    <col min="770" max="770" width="51.7109375" style="64" customWidth="1"/>
-    <col min="771" max="771" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="14.42578125" style="64" customWidth="1"/>
-    <col min="773" max="773" width="17.85546875" style="64" customWidth="1"/>
-    <col min="774" max="774" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="9.140625" style="64"/>
-    <col min="776" max="776" width="41.28515625" style="64" customWidth="1"/>
-    <col min="777" max="777" width="24.5703125" style="64" customWidth="1"/>
-    <col min="778" max="1024" width="9.140625" style="64"/>
-    <col min="1025" max="1025" width="14.140625" style="64" customWidth="1"/>
-    <col min="1026" max="1026" width="51.7109375" style="64" customWidth="1"/>
-    <col min="1027" max="1027" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="14.42578125" style="64" customWidth="1"/>
-    <col min="1029" max="1029" width="17.85546875" style="64" customWidth="1"/>
-    <col min="1030" max="1030" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="9.140625" style="64"/>
-    <col min="1032" max="1032" width="41.28515625" style="64" customWidth="1"/>
-    <col min="1033" max="1033" width="24.5703125" style="64" customWidth="1"/>
-    <col min="1034" max="1280" width="9.140625" style="64"/>
-    <col min="1281" max="1281" width="14.140625" style="64" customWidth="1"/>
-    <col min="1282" max="1282" width="51.7109375" style="64" customWidth="1"/>
-    <col min="1283" max="1283" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="14.42578125" style="64" customWidth="1"/>
-    <col min="1285" max="1285" width="17.85546875" style="64" customWidth="1"/>
-    <col min="1286" max="1286" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="9.140625" style="64"/>
-    <col min="1288" max="1288" width="41.28515625" style="64" customWidth="1"/>
-    <col min="1289" max="1289" width="24.5703125" style="64" customWidth="1"/>
-    <col min="1290" max="1536" width="9.140625" style="64"/>
-    <col min="1537" max="1537" width="14.140625" style="64" customWidth="1"/>
-    <col min="1538" max="1538" width="51.7109375" style="64" customWidth="1"/>
-    <col min="1539" max="1539" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="14.42578125" style="64" customWidth="1"/>
-    <col min="1541" max="1541" width="17.85546875" style="64" customWidth="1"/>
-    <col min="1542" max="1542" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="9.140625" style="64"/>
-    <col min="1544" max="1544" width="41.28515625" style="64" customWidth="1"/>
-    <col min="1545" max="1545" width="24.5703125" style="64" customWidth="1"/>
-    <col min="1546" max="1792" width="9.140625" style="64"/>
-    <col min="1793" max="1793" width="14.140625" style="64" customWidth="1"/>
-    <col min="1794" max="1794" width="51.7109375" style="64" customWidth="1"/>
-    <col min="1795" max="1795" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="14.42578125" style="64" customWidth="1"/>
-    <col min="1797" max="1797" width="17.85546875" style="64" customWidth="1"/>
-    <col min="1798" max="1798" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="9.140625" style="64"/>
-    <col min="1800" max="1800" width="41.28515625" style="64" customWidth="1"/>
-    <col min="1801" max="1801" width="24.5703125" style="64" customWidth="1"/>
-    <col min="1802" max="2048" width="9.140625" style="64"/>
-    <col min="2049" max="2049" width="14.140625" style="64" customWidth="1"/>
-    <col min="2050" max="2050" width="51.7109375" style="64" customWidth="1"/>
-    <col min="2051" max="2051" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="14.42578125" style="64" customWidth="1"/>
-    <col min="2053" max="2053" width="17.85546875" style="64" customWidth="1"/>
-    <col min="2054" max="2054" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="9.140625" style="64"/>
-    <col min="2056" max="2056" width="41.28515625" style="64" customWidth="1"/>
-    <col min="2057" max="2057" width="24.5703125" style="64" customWidth="1"/>
-    <col min="2058" max="2304" width="9.140625" style="64"/>
-    <col min="2305" max="2305" width="14.140625" style="64" customWidth="1"/>
-    <col min="2306" max="2306" width="51.7109375" style="64" customWidth="1"/>
-    <col min="2307" max="2307" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="14.42578125" style="64" customWidth="1"/>
-    <col min="2309" max="2309" width="17.85546875" style="64" customWidth="1"/>
-    <col min="2310" max="2310" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="9.140625" style="64"/>
-    <col min="2312" max="2312" width="41.28515625" style="64" customWidth="1"/>
-    <col min="2313" max="2313" width="24.5703125" style="64" customWidth="1"/>
-    <col min="2314" max="2560" width="9.140625" style="64"/>
-    <col min="2561" max="2561" width="14.140625" style="64" customWidth="1"/>
-    <col min="2562" max="2562" width="51.7109375" style="64" customWidth="1"/>
-    <col min="2563" max="2563" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="14.42578125" style="64" customWidth="1"/>
-    <col min="2565" max="2565" width="17.85546875" style="64" customWidth="1"/>
-    <col min="2566" max="2566" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="9.140625" style="64"/>
-    <col min="2568" max="2568" width="41.28515625" style="64" customWidth="1"/>
-    <col min="2569" max="2569" width="24.5703125" style="64" customWidth="1"/>
-    <col min="2570" max="2816" width="9.140625" style="64"/>
-    <col min="2817" max="2817" width="14.140625" style="64" customWidth="1"/>
-    <col min="2818" max="2818" width="51.7109375" style="64" customWidth="1"/>
-    <col min="2819" max="2819" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="14.42578125" style="64" customWidth="1"/>
-    <col min="2821" max="2821" width="17.85546875" style="64" customWidth="1"/>
-    <col min="2822" max="2822" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="9.140625" style="64"/>
-    <col min="2824" max="2824" width="41.28515625" style="64" customWidth="1"/>
-    <col min="2825" max="2825" width="24.5703125" style="64" customWidth="1"/>
-    <col min="2826" max="3072" width="9.140625" style="64"/>
-    <col min="3073" max="3073" width="14.140625" style="64" customWidth="1"/>
-    <col min="3074" max="3074" width="51.7109375" style="64" customWidth="1"/>
-    <col min="3075" max="3075" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="14.42578125" style="64" customWidth="1"/>
-    <col min="3077" max="3077" width="17.85546875" style="64" customWidth="1"/>
-    <col min="3078" max="3078" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="9.140625" style="64"/>
-    <col min="3080" max="3080" width="41.28515625" style="64" customWidth="1"/>
-    <col min="3081" max="3081" width="24.5703125" style="64" customWidth="1"/>
-    <col min="3082" max="3328" width="9.140625" style="64"/>
-    <col min="3329" max="3329" width="14.140625" style="64" customWidth="1"/>
-    <col min="3330" max="3330" width="51.7109375" style="64" customWidth="1"/>
-    <col min="3331" max="3331" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="14.42578125" style="64" customWidth="1"/>
-    <col min="3333" max="3333" width="17.85546875" style="64" customWidth="1"/>
-    <col min="3334" max="3334" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="9.140625" style="64"/>
-    <col min="3336" max="3336" width="41.28515625" style="64" customWidth="1"/>
-    <col min="3337" max="3337" width="24.5703125" style="64" customWidth="1"/>
-    <col min="3338" max="3584" width="9.140625" style="64"/>
-    <col min="3585" max="3585" width="14.140625" style="64" customWidth="1"/>
-    <col min="3586" max="3586" width="51.7109375" style="64" customWidth="1"/>
-    <col min="3587" max="3587" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="14.42578125" style="64" customWidth="1"/>
-    <col min="3589" max="3589" width="17.85546875" style="64" customWidth="1"/>
-    <col min="3590" max="3590" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="9.140625" style="64"/>
-    <col min="3592" max="3592" width="41.28515625" style="64" customWidth="1"/>
-    <col min="3593" max="3593" width="24.5703125" style="64" customWidth="1"/>
-    <col min="3594" max="3840" width="9.140625" style="64"/>
-    <col min="3841" max="3841" width="14.140625" style="64" customWidth="1"/>
-    <col min="3842" max="3842" width="51.7109375" style="64" customWidth="1"/>
-    <col min="3843" max="3843" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="14.42578125" style="64" customWidth="1"/>
-    <col min="3845" max="3845" width="17.85546875" style="64" customWidth="1"/>
-    <col min="3846" max="3846" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="9.140625" style="64"/>
-    <col min="3848" max="3848" width="41.28515625" style="64" customWidth="1"/>
-    <col min="3849" max="3849" width="24.5703125" style="64" customWidth="1"/>
-    <col min="3850" max="4096" width="9.140625" style="64"/>
-    <col min="4097" max="4097" width="14.140625" style="64" customWidth="1"/>
-    <col min="4098" max="4098" width="51.7109375" style="64" customWidth="1"/>
-    <col min="4099" max="4099" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="14.42578125" style="64" customWidth="1"/>
-    <col min="4101" max="4101" width="17.85546875" style="64" customWidth="1"/>
-    <col min="4102" max="4102" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="9.140625" style="64"/>
-    <col min="4104" max="4104" width="41.28515625" style="64" customWidth="1"/>
-    <col min="4105" max="4105" width="24.5703125" style="64" customWidth="1"/>
-    <col min="4106" max="4352" width="9.140625" style="64"/>
-    <col min="4353" max="4353" width="14.140625" style="64" customWidth="1"/>
-    <col min="4354" max="4354" width="51.7109375" style="64" customWidth="1"/>
-    <col min="4355" max="4355" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="14.42578125" style="64" customWidth="1"/>
-    <col min="4357" max="4357" width="17.85546875" style="64" customWidth="1"/>
-    <col min="4358" max="4358" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="9.140625" style="64"/>
-    <col min="4360" max="4360" width="41.28515625" style="64" customWidth="1"/>
-    <col min="4361" max="4361" width="24.5703125" style="64" customWidth="1"/>
-    <col min="4362" max="4608" width="9.140625" style="64"/>
-    <col min="4609" max="4609" width="14.140625" style="64" customWidth="1"/>
-    <col min="4610" max="4610" width="51.7109375" style="64" customWidth="1"/>
-    <col min="4611" max="4611" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="14.42578125" style="64" customWidth="1"/>
-    <col min="4613" max="4613" width="17.85546875" style="64" customWidth="1"/>
-    <col min="4614" max="4614" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="9.140625" style="64"/>
-    <col min="4616" max="4616" width="41.28515625" style="64" customWidth="1"/>
-    <col min="4617" max="4617" width="24.5703125" style="64" customWidth="1"/>
-    <col min="4618" max="4864" width="9.140625" style="64"/>
-    <col min="4865" max="4865" width="14.140625" style="64" customWidth="1"/>
-    <col min="4866" max="4866" width="51.7109375" style="64" customWidth="1"/>
-    <col min="4867" max="4867" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="14.42578125" style="64" customWidth="1"/>
-    <col min="4869" max="4869" width="17.85546875" style="64" customWidth="1"/>
-    <col min="4870" max="4870" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="9.140625" style="64"/>
-    <col min="4872" max="4872" width="41.28515625" style="64" customWidth="1"/>
-    <col min="4873" max="4873" width="24.5703125" style="64" customWidth="1"/>
-    <col min="4874" max="5120" width="9.140625" style="64"/>
-    <col min="5121" max="5121" width="14.140625" style="64" customWidth="1"/>
-    <col min="5122" max="5122" width="51.7109375" style="64" customWidth="1"/>
-    <col min="5123" max="5123" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="14.42578125" style="64" customWidth="1"/>
-    <col min="5125" max="5125" width="17.85546875" style="64" customWidth="1"/>
-    <col min="5126" max="5126" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="9.140625" style="64"/>
-    <col min="5128" max="5128" width="41.28515625" style="64" customWidth="1"/>
-    <col min="5129" max="5129" width="24.5703125" style="64" customWidth="1"/>
-    <col min="5130" max="5376" width="9.140625" style="64"/>
-    <col min="5377" max="5377" width="14.140625" style="64" customWidth="1"/>
-    <col min="5378" max="5378" width="51.7109375" style="64" customWidth="1"/>
-    <col min="5379" max="5379" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="14.42578125" style="64" customWidth="1"/>
-    <col min="5381" max="5381" width="17.85546875" style="64" customWidth="1"/>
-    <col min="5382" max="5382" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="9.140625" style="64"/>
-    <col min="5384" max="5384" width="41.28515625" style="64" customWidth="1"/>
-    <col min="5385" max="5385" width="24.5703125" style="64" customWidth="1"/>
-    <col min="5386" max="5632" width="9.140625" style="64"/>
-    <col min="5633" max="5633" width="14.140625" style="64" customWidth="1"/>
-    <col min="5634" max="5634" width="51.7109375" style="64" customWidth="1"/>
-    <col min="5635" max="5635" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="14.42578125" style="64" customWidth="1"/>
-    <col min="5637" max="5637" width="17.85546875" style="64" customWidth="1"/>
-    <col min="5638" max="5638" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="9.140625" style="64"/>
-    <col min="5640" max="5640" width="41.28515625" style="64" customWidth="1"/>
-    <col min="5641" max="5641" width="24.5703125" style="64" customWidth="1"/>
-    <col min="5642" max="5888" width="9.140625" style="64"/>
-    <col min="5889" max="5889" width="14.140625" style="64" customWidth="1"/>
-    <col min="5890" max="5890" width="51.7109375" style="64" customWidth="1"/>
-    <col min="5891" max="5891" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="14.42578125" style="64" customWidth="1"/>
-    <col min="5893" max="5893" width="17.85546875" style="64" customWidth="1"/>
-    <col min="5894" max="5894" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="9.140625" style="64"/>
-    <col min="5896" max="5896" width="41.28515625" style="64" customWidth="1"/>
-    <col min="5897" max="5897" width="24.5703125" style="64" customWidth="1"/>
-    <col min="5898" max="6144" width="9.140625" style="64"/>
-    <col min="6145" max="6145" width="14.140625" style="64" customWidth="1"/>
-    <col min="6146" max="6146" width="51.7109375" style="64" customWidth="1"/>
-    <col min="6147" max="6147" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="14.42578125" style="64" customWidth="1"/>
-    <col min="6149" max="6149" width="17.85546875" style="64" customWidth="1"/>
-    <col min="6150" max="6150" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="9.140625" style="64"/>
-    <col min="6152" max="6152" width="41.28515625" style="64" customWidth="1"/>
-    <col min="6153" max="6153" width="24.5703125" style="64" customWidth="1"/>
-    <col min="6154" max="6400" width="9.140625" style="64"/>
-    <col min="6401" max="6401" width="14.140625" style="64" customWidth="1"/>
-    <col min="6402" max="6402" width="51.7109375" style="64" customWidth="1"/>
-    <col min="6403" max="6403" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="14.42578125" style="64" customWidth="1"/>
-    <col min="6405" max="6405" width="17.85546875" style="64" customWidth="1"/>
-    <col min="6406" max="6406" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="9.140625" style="64"/>
-    <col min="6408" max="6408" width="41.28515625" style="64" customWidth="1"/>
-    <col min="6409" max="6409" width="24.5703125" style="64" customWidth="1"/>
-    <col min="6410" max="6656" width="9.140625" style="64"/>
-    <col min="6657" max="6657" width="14.140625" style="64" customWidth="1"/>
-    <col min="6658" max="6658" width="51.7109375" style="64" customWidth="1"/>
-    <col min="6659" max="6659" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="14.42578125" style="64" customWidth="1"/>
-    <col min="6661" max="6661" width="17.85546875" style="64" customWidth="1"/>
-    <col min="6662" max="6662" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="9.140625" style="64"/>
-    <col min="6664" max="6664" width="41.28515625" style="64" customWidth="1"/>
-    <col min="6665" max="6665" width="24.5703125" style="64" customWidth="1"/>
-    <col min="6666" max="6912" width="9.140625" style="64"/>
-    <col min="6913" max="6913" width="14.140625" style="64" customWidth="1"/>
-    <col min="6914" max="6914" width="51.7109375" style="64" customWidth="1"/>
-    <col min="6915" max="6915" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="14.42578125" style="64" customWidth="1"/>
-    <col min="6917" max="6917" width="17.85546875" style="64" customWidth="1"/>
-    <col min="6918" max="6918" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="9.140625" style="64"/>
-    <col min="6920" max="6920" width="41.28515625" style="64" customWidth="1"/>
-    <col min="6921" max="6921" width="24.5703125" style="64" customWidth="1"/>
-    <col min="6922" max="7168" width="9.140625" style="64"/>
-    <col min="7169" max="7169" width="14.140625" style="64" customWidth="1"/>
-    <col min="7170" max="7170" width="51.7109375" style="64" customWidth="1"/>
-    <col min="7171" max="7171" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="14.42578125" style="64" customWidth="1"/>
-    <col min="7173" max="7173" width="17.85546875" style="64" customWidth="1"/>
-    <col min="7174" max="7174" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="9.140625" style="64"/>
-    <col min="7176" max="7176" width="41.28515625" style="64" customWidth="1"/>
-    <col min="7177" max="7177" width="24.5703125" style="64" customWidth="1"/>
-    <col min="7178" max="7424" width="9.140625" style="64"/>
-    <col min="7425" max="7425" width="14.140625" style="64" customWidth="1"/>
-    <col min="7426" max="7426" width="51.7109375" style="64" customWidth="1"/>
-    <col min="7427" max="7427" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="14.42578125" style="64" customWidth="1"/>
-    <col min="7429" max="7429" width="17.85546875" style="64" customWidth="1"/>
-    <col min="7430" max="7430" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="9.140625" style="64"/>
-    <col min="7432" max="7432" width="41.28515625" style="64" customWidth="1"/>
-    <col min="7433" max="7433" width="24.5703125" style="64" customWidth="1"/>
-    <col min="7434" max="7680" width="9.140625" style="64"/>
-    <col min="7681" max="7681" width="14.140625" style="64" customWidth="1"/>
-    <col min="7682" max="7682" width="51.7109375" style="64" customWidth="1"/>
-    <col min="7683" max="7683" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="14.42578125" style="64" customWidth="1"/>
-    <col min="7685" max="7685" width="17.85546875" style="64" customWidth="1"/>
-    <col min="7686" max="7686" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="9.140625" style="64"/>
-    <col min="7688" max="7688" width="41.28515625" style="64" customWidth="1"/>
-    <col min="7689" max="7689" width="24.5703125" style="64" customWidth="1"/>
-    <col min="7690" max="7936" width="9.140625" style="64"/>
-    <col min="7937" max="7937" width="14.140625" style="64" customWidth="1"/>
-    <col min="7938" max="7938" width="51.7109375" style="64" customWidth="1"/>
-    <col min="7939" max="7939" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="14.42578125" style="64" customWidth="1"/>
-    <col min="7941" max="7941" width="17.85546875" style="64" customWidth="1"/>
-    <col min="7942" max="7942" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="9.140625" style="64"/>
-    <col min="7944" max="7944" width="41.28515625" style="64" customWidth="1"/>
-    <col min="7945" max="7945" width="24.5703125" style="64" customWidth="1"/>
-    <col min="7946" max="8192" width="9.140625" style="64"/>
-    <col min="8193" max="8193" width="14.140625" style="64" customWidth="1"/>
-    <col min="8194" max="8194" width="51.7109375" style="64" customWidth="1"/>
-    <col min="8195" max="8195" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="14.42578125" style="64" customWidth="1"/>
-    <col min="8197" max="8197" width="17.85546875" style="64" customWidth="1"/>
-    <col min="8198" max="8198" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="9.140625" style="64"/>
-    <col min="8200" max="8200" width="41.28515625" style="64" customWidth="1"/>
-    <col min="8201" max="8201" width="24.5703125" style="64" customWidth="1"/>
-    <col min="8202" max="8448" width="9.140625" style="64"/>
-    <col min="8449" max="8449" width="14.140625" style="64" customWidth="1"/>
-    <col min="8450" max="8450" width="51.7109375" style="64" customWidth="1"/>
-    <col min="8451" max="8451" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="14.42578125" style="64" customWidth="1"/>
-    <col min="8453" max="8453" width="17.85546875" style="64" customWidth="1"/>
-    <col min="8454" max="8454" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="9.140625" style="64"/>
-    <col min="8456" max="8456" width="41.28515625" style="64" customWidth="1"/>
-    <col min="8457" max="8457" width="24.5703125" style="64" customWidth="1"/>
-    <col min="8458" max="8704" width="9.140625" style="64"/>
-    <col min="8705" max="8705" width="14.140625" style="64" customWidth="1"/>
-    <col min="8706" max="8706" width="51.7109375" style="64" customWidth="1"/>
-    <col min="8707" max="8707" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="14.42578125" style="64" customWidth="1"/>
-    <col min="8709" max="8709" width="17.85546875" style="64" customWidth="1"/>
-    <col min="8710" max="8710" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="9.140625" style="64"/>
-    <col min="8712" max="8712" width="41.28515625" style="64" customWidth="1"/>
-    <col min="8713" max="8713" width="24.5703125" style="64" customWidth="1"/>
-    <col min="8714" max="8960" width="9.140625" style="64"/>
-    <col min="8961" max="8961" width="14.140625" style="64" customWidth="1"/>
-    <col min="8962" max="8962" width="51.7109375" style="64" customWidth="1"/>
-    <col min="8963" max="8963" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="14.42578125" style="64" customWidth="1"/>
-    <col min="8965" max="8965" width="17.85546875" style="64" customWidth="1"/>
-    <col min="8966" max="8966" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="9.140625" style="64"/>
-    <col min="8968" max="8968" width="41.28515625" style="64" customWidth="1"/>
-    <col min="8969" max="8969" width="24.5703125" style="64" customWidth="1"/>
-    <col min="8970" max="9216" width="9.140625" style="64"/>
-    <col min="9217" max="9217" width="14.140625" style="64" customWidth="1"/>
-    <col min="9218" max="9218" width="51.7109375" style="64" customWidth="1"/>
-    <col min="9219" max="9219" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="14.42578125" style="64" customWidth="1"/>
-    <col min="9221" max="9221" width="17.85546875" style="64" customWidth="1"/>
-    <col min="9222" max="9222" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="9.140625" style="64"/>
-    <col min="9224" max="9224" width="41.28515625" style="64" customWidth="1"/>
-    <col min="9225" max="9225" width="24.5703125" style="64" customWidth="1"/>
-    <col min="9226" max="9472" width="9.140625" style="64"/>
-    <col min="9473" max="9473" width="14.140625" style="64" customWidth="1"/>
-    <col min="9474" max="9474" width="51.7109375" style="64" customWidth="1"/>
-    <col min="9475" max="9475" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="14.42578125" style="64" customWidth="1"/>
-    <col min="9477" max="9477" width="17.85546875" style="64" customWidth="1"/>
-    <col min="9478" max="9478" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="9.140625" style="64"/>
-    <col min="9480" max="9480" width="41.28515625" style="64" customWidth="1"/>
-    <col min="9481" max="9481" width="24.5703125" style="64" customWidth="1"/>
-    <col min="9482" max="9728" width="9.140625" style="64"/>
-    <col min="9729" max="9729" width="14.140625" style="64" customWidth="1"/>
-    <col min="9730" max="9730" width="51.7109375" style="64" customWidth="1"/>
-    <col min="9731" max="9731" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="14.42578125" style="64" customWidth="1"/>
-    <col min="9733" max="9733" width="17.85546875" style="64" customWidth="1"/>
-    <col min="9734" max="9734" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="9.140625" style="64"/>
-    <col min="9736" max="9736" width="41.28515625" style="64" customWidth="1"/>
-    <col min="9737" max="9737" width="24.5703125" style="64" customWidth="1"/>
-    <col min="9738" max="9984" width="9.140625" style="64"/>
-    <col min="9985" max="9985" width="14.140625" style="64" customWidth="1"/>
-    <col min="9986" max="9986" width="51.7109375" style="64" customWidth="1"/>
-    <col min="9987" max="9987" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="14.42578125" style="64" customWidth="1"/>
-    <col min="9989" max="9989" width="17.85546875" style="64" customWidth="1"/>
-    <col min="9990" max="9990" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="9.140625" style="64"/>
-    <col min="9992" max="9992" width="41.28515625" style="64" customWidth="1"/>
-    <col min="9993" max="9993" width="24.5703125" style="64" customWidth="1"/>
-    <col min="9994" max="10240" width="9.140625" style="64"/>
-    <col min="10241" max="10241" width="14.140625" style="64" customWidth="1"/>
-    <col min="10242" max="10242" width="51.7109375" style="64" customWidth="1"/>
-    <col min="10243" max="10243" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="14.42578125" style="64" customWidth="1"/>
-    <col min="10245" max="10245" width="17.85546875" style="64" customWidth="1"/>
-    <col min="10246" max="10246" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="9.140625" style="64"/>
-    <col min="10248" max="10248" width="41.28515625" style="64" customWidth="1"/>
-    <col min="10249" max="10249" width="24.5703125" style="64" customWidth="1"/>
-    <col min="10250" max="10496" width="9.140625" style="64"/>
-    <col min="10497" max="10497" width="14.140625" style="64" customWidth="1"/>
-    <col min="10498" max="10498" width="51.7109375" style="64" customWidth="1"/>
-    <col min="10499" max="10499" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="14.42578125" style="64" customWidth="1"/>
-    <col min="10501" max="10501" width="17.85546875" style="64" customWidth="1"/>
-    <col min="10502" max="10502" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="9.140625" style="64"/>
-    <col min="10504" max="10504" width="41.28515625" style="64" customWidth="1"/>
-    <col min="10505" max="10505" width="24.5703125" style="64" customWidth="1"/>
-    <col min="10506" max="10752" width="9.140625" style="64"/>
-    <col min="10753" max="10753" width="14.140625" style="64" customWidth="1"/>
-    <col min="10754" max="10754" width="51.7109375" style="64" customWidth="1"/>
-    <col min="10755" max="10755" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="14.42578125" style="64" customWidth="1"/>
-    <col min="10757" max="10757" width="17.85546875" style="64" customWidth="1"/>
-    <col min="10758" max="10758" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="9.140625" style="64"/>
-    <col min="10760" max="10760" width="41.28515625" style="64" customWidth="1"/>
-    <col min="10761" max="10761" width="24.5703125" style="64" customWidth="1"/>
-    <col min="10762" max="11008" width="9.140625" style="64"/>
-    <col min="11009" max="11009" width="14.140625" style="64" customWidth="1"/>
-    <col min="11010" max="11010" width="51.7109375" style="64" customWidth="1"/>
-    <col min="11011" max="11011" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="14.42578125" style="64" customWidth="1"/>
-    <col min="11013" max="11013" width="17.85546875" style="64" customWidth="1"/>
-    <col min="11014" max="11014" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="9.140625" style="64"/>
-    <col min="11016" max="11016" width="41.28515625" style="64" customWidth="1"/>
-    <col min="11017" max="11017" width="24.5703125" style="64" customWidth="1"/>
-    <col min="11018" max="11264" width="9.140625" style="64"/>
-    <col min="11265" max="11265" width="14.140625" style="64" customWidth="1"/>
-    <col min="11266" max="11266" width="51.7109375" style="64" customWidth="1"/>
-    <col min="11267" max="11267" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="14.42578125" style="64" customWidth="1"/>
-    <col min="11269" max="11269" width="17.85546875" style="64" customWidth="1"/>
-    <col min="11270" max="11270" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="9.140625" style="64"/>
-    <col min="11272" max="11272" width="41.28515625" style="64" customWidth="1"/>
-    <col min="11273" max="11273" width="24.5703125" style="64" customWidth="1"/>
-    <col min="11274" max="11520" width="9.140625" style="64"/>
-    <col min="11521" max="11521" width="14.140625" style="64" customWidth="1"/>
-    <col min="11522" max="11522" width="51.7109375" style="64" customWidth="1"/>
-    <col min="11523" max="11523" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="14.42578125" style="64" customWidth="1"/>
-    <col min="11525" max="11525" width="17.85546875" style="64" customWidth="1"/>
-    <col min="11526" max="11526" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="9.140625" style="64"/>
-    <col min="11528" max="11528" width="41.28515625" style="64" customWidth="1"/>
-    <col min="11529" max="11529" width="24.5703125" style="64" customWidth="1"/>
-    <col min="11530" max="11776" width="9.140625" style="64"/>
-    <col min="11777" max="11777" width="14.140625" style="64" customWidth="1"/>
-    <col min="11778" max="11778" width="51.7109375" style="64" customWidth="1"/>
-    <col min="11779" max="11779" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="14.42578125" style="64" customWidth="1"/>
-    <col min="11781" max="11781" width="17.85546875" style="64" customWidth="1"/>
-    <col min="11782" max="11782" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="9.140625" style="64"/>
-    <col min="11784" max="11784" width="41.28515625" style="64" customWidth="1"/>
-    <col min="11785" max="11785" width="24.5703125" style="64" customWidth="1"/>
-    <col min="11786" max="12032" width="9.140625" style="64"/>
-    <col min="12033" max="12033" width="14.140625" style="64" customWidth="1"/>
-    <col min="12034" max="12034" width="51.7109375" style="64" customWidth="1"/>
-    <col min="12035" max="12035" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="14.42578125" style="64" customWidth="1"/>
-    <col min="12037" max="12037" width="17.85546875" style="64" customWidth="1"/>
-    <col min="12038" max="12038" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="9.140625" style="64"/>
-    <col min="12040" max="12040" width="41.28515625" style="64" customWidth="1"/>
-    <col min="12041" max="12041" width="24.5703125" style="64" customWidth="1"/>
-    <col min="12042" max="12288" width="9.140625" style="64"/>
-    <col min="12289" max="12289" width="14.140625" style="64" customWidth="1"/>
-    <col min="12290" max="12290" width="51.7109375" style="64" customWidth="1"/>
-    <col min="12291" max="12291" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="14.42578125" style="64" customWidth="1"/>
-    <col min="12293" max="12293" width="17.85546875" style="64" customWidth="1"/>
-    <col min="12294" max="12294" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="9.140625" style="64"/>
-    <col min="12296" max="12296" width="41.28515625" style="64" customWidth="1"/>
-    <col min="12297" max="12297" width="24.5703125" style="64" customWidth="1"/>
-    <col min="12298" max="12544" width="9.140625" style="64"/>
-    <col min="12545" max="12545" width="14.140625" style="64" customWidth="1"/>
-    <col min="12546" max="12546" width="51.7109375" style="64" customWidth="1"/>
-    <col min="12547" max="12547" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="14.42578125" style="64" customWidth="1"/>
-    <col min="12549" max="12549" width="17.85546875" style="64" customWidth="1"/>
-    <col min="12550" max="12550" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="9.140625" style="64"/>
-    <col min="12552" max="12552" width="41.28515625" style="64" customWidth="1"/>
-    <col min="12553" max="12553" width="24.5703125" style="64" customWidth="1"/>
-    <col min="12554" max="12800" width="9.140625" style="64"/>
-    <col min="12801" max="12801" width="14.140625" style="64" customWidth="1"/>
-    <col min="12802" max="12802" width="51.7109375" style="64" customWidth="1"/>
-    <col min="12803" max="12803" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="14.42578125" style="64" customWidth="1"/>
-    <col min="12805" max="12805" width="17.85546875" style="64" customWidth="1"/>
-    <col min="12806" max="12806" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="9.140625" style="64"/>
-    <col min="12808" max="12808" width="41.28515625" style="64" customWidth="1"/>
-    <col min="12809" max="12809" width="24.5703125" style="64" customWidth="1"/>
-    <col min="12810" max="13056" width="9.140625" style="64"/>
-    <col min="13057" max="13057" width="14.140625" style="64" customWidth="1"/>
-    <col min="13058" max="13058" width="51.7109375" style="64" customWidth="1"/>
-    <col min="13059" max="13059" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="14.42578125" style="64" customWidth="1"/>
-    <col min="13061" max="13061" width="17.85546875" style="64" customWidth="1"/>
-    <col min="13062" max="13062" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="9.140625" style="64"/>
-    <col min="13064" max="13064" width="41.28515625" style="64" customWidth="1"/>
-    <col min="13065" max="13065" width="24.5703125" style="64" customWidth="1"/>
-    <col min="13066" max="13312" width="9.140625" style="64"/>
-    <col min="13313" max="13313" width="14.140625" style="64" customWidth="1"/>
-    <col min="13314" max="13314" width="51.7109375" style="64" customWidth="1"/>
-    <col min="13315" max="13315" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="14.42578125" style="64" customWidth="1"/>
-    <col min="13317" max="13317" width="17.85546875" style="64" customWidth="1"/>
-    <col min="13318" max="13318" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="9.140625" style="64"/>
-    <col min="13320" max="13320" width="41.28515625" style="64" customWidth="1"/>
-    <col min="13321" max="13321" width="24.5703125" style="64" customWidth="1"/>
-    <col min="13322" max="13568" width="9.140625" style="64"/>
-    <col min="13569" max="13569" width="14.140625" style="64" customWidth="1"/>
-    <col min="13570" max="13570" width="51.7109375" style="64" customWidth="1"/>
-    <col min="13571" max="13571" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="14.42578125" style="64" customWidth="1"/>
-    <col min="13573" max="13573" width="17.85546875" style="64" customWidth="1"/>
-    <col min="13574" max="13574" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="9.140625" style="64"/>
-    <col min="13576" max="13576" width="41.28515625" style="64" customWidth="1"/>
-    <col min="13577" max="13577" width="24.5703125" style="64" customWidth="1"/>
-    <col min="13578" max="13824" width="9.140625" style="64"/>
-    <col min="13825" max="13825" width="14.140625" style="64" customWidth="1"/>
-    <col min="13826" max="13826" width="51.7109375" style="64" customWidth="1"/>
-    <col min="13827" max="13827" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="14.42578125" style="64" customWidth="1"/>
-    <col min="13829" max="13829" width="17.85546875" style="64" customWidth="1"/>
-    <col min="13830" max="13830" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="9.140625" style="64"/>
-    <col min="13832" max="13832" width="41.28515625" style="64" customWidth="1"/>
-    <col min="13833" max="13833" width="24.5703125" style="64" customWidth="1"/>
-    <col min="13834" max="14080" width="9.140625" style="64"/>
-    <col min="14081" max="14081" width="14.140625" style="64" customWidth="1"/>
-    <col min="14082" max="14082" width="51.7109375" style="64" customWidth="1"/>
-    <col min="14083" max="14083" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="14.42578125" style="64" customWidth="1"/>
-    <col min="14085" max="14085" width="17.85546875" style="64" customWidth="1"/>
-    <col min="14086" max="14086" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="9.140625" style="64"/>
-    <col min="14088" max="14088" width="41.28515625" style="64" customWidth="1"/>
-    <col min="14089" max="14089" width="24.5703125" style="64" customWidth="1"/>
-    <col min="14090" max="14336" width="9.140625" style="64"/>
-    <col min="14337" max="14337" width="14.140625" style="64" customWidth="1"/>
-    <col min="14338" max="14338" width="51.7109375" style="64" customWidth="1"/>
-    <col min="14339" max="14339" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="14.42578125" style="64" customWidth="1"/>
-    <col min="14341" max="14341" width="17.85546875" style="64" customWidth="1"/>
-    <col min="14342" max="14342" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="9.140625" style="64"/>
-    <col min="14344" max="14344" width="41.28515625" style="64" customWidth="1"/>
-    <col min="14345" max="14345" width="24.5703125" style="64" customWidth="1"/>
-    <col min="14346" max="14592" width="9.140625" style="64"/>
-    <col min="14593" max="14593" width="14.140625" style="64" customWidth="1"/>
-    <col min="14594" max="14594" width="51.7109375" style="64" customWidth="1"/>
-    <col min="14595" max="14595" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="14.42578125" style="64" customWidth="1"/>
-    <col min="14597" max="14597" width="17.85546875" style="64" customWidth="1"/>
-    <col min="14598" max="14598" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="9.140625" style="64"/>
-    <col min="14600" max="14600" width="41.28515625" style="64" customWidth="1"/>
-    <col min="14601" max="14601" width="24.5703125" style="64" customWidth="1"/>
-    <col min="14602" max="14848" width="9.140625" style="64"/>
-    <col min="14849" max="14849" width="14.140625" style="64" customWidth="1"/>
-    <col min="14850" max="14850" width="51.7109375" style="64" customWidth="1"/>
-    <col min="14851" max="14851" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="14.42578125" style="64" customWidth="1"/>
-    <col min="14853" max="14853" width="17.85546875" style="64" customWidth="1"/>
-    <col min="14854" max="14854" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="9.140625" style="64"/>
-    <col min="14856" max="14856" width="41.28515625" style="64" customWidth="1"/>
-    <col min="14857" max="14857" width="24.5703125" style="64" customWidth="1"/>
-    <col min="14858" max="15104" width="9.140625" style="64"/>
-    <col min="15105" max="15105" width="14.140625" style="64" customWidth="1"/>
-    <col min="15106" max="15106" width="51.7109375" style="64" customWidth="1"/>
-    <col min="15107" max="15107" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="14.42578125" style="64" customWidth="1"/>
-    <col min="15109" max="15109" width="17.85546875" style="64" customWidth="1"/>
-    <col min="15110" max="15110" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="9.140625" style="64"/>
-    <col min="15112" max="15112" width="41.28515625" style="64" customWidth="1"/>
-    <col min="15113" max="15113" width="24.5703125" style="64" customWidth="1"/>
-    <col min="15114" max="15360" width="9.140625" style="64"/>
-    <col min="15361" max="15361" width="14.140625" style="64" customWidth="1"/>
-    <col min="15362" max="15362" width="51.7109375" style="64" customWidth="1"/>
-    <col min="15363" max="15363" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="14.42578125" style="64" customWidth="1"/>
-    <col min="15365" max="15365" width="17.85546875" style="64" customWidth="1"/>
-    <col min="15366" max="15366" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="9.140625" style="64"/>
-    <col min="15368" max="15368" width="41.28515625" style="64" customWidth="1"/>
-    <col min="15369" max="15369" width="24.5703125" style="64" customWidth="1"/>
-    <col min="15370" max="15616" width="9.140625" style="64"/>
-    <col min="15617" max="15617" width="14.140625" style="64" customWidth="1"/>
-    <col min="15618" max="15618" width="51.7109375" style="64" customWidth="1"/>
-    <col min="15619" max="15619" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="14.42578125" style="64" customWidth="1"/>
-    <col min="15621" max="15621" width="17.85546875" style="64" customWidth="1"/>
-    <col min="15622" max="15622" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="9.140625" style="64"/>
-    <col min="15624" max="15624" width="41.28515625" style="64" customWidth="1"/>
-    <col min="15625" max="15625" width="24.5703125" style="64" customWidth="1"/>
-    <col min="15626" max="15872" width="9.140625" style="64"/>
-    <col min="15873" max="15873" width="14.140625" style="64" customWidth="1"/>
-    <col min="15874" max="15874" width="51.7109375" style="64" customWidth="1"/>
-    <col min="15875" max="15875" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="14.42578125" style="64" customWidth="1"/>
-    <col min="15877" max="15877" width="17.85546875" style="64" customWidth="1"/>
-    <col min="15878" max="15878" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="9.140625" style="64"/>
-    <col min="15880" max="15880" width="41.28515625" style="64" customWidth="1"/>
-    <col min="15881" max="15881" width="24.5703125" style="64" customWidth="1"/>
-    <col min="15882" max="16128" width="9.140625" style="64"/>
-    <col min="16129" max="16129" width="14.140625" style="64" customWidth="1"/>
-    <col min="16130" max="16130" width="51.7109375" style="64" customWidth="1"/>
-    <col min="16131" max="16131" width="10.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="14.42578125" style="64" customWidth="1"/>
-    <col min="16133" max="16133" width="17.85546875" style="64" customWidth="1"/>
-    <col min="16134" max="16134" width="11.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="9.140625" style="64"/>
-    <col min="16136" max="16136" width="41.28515625" style="64" customWidth="1"/>
-    <col min="16137" max="16137" width="24.5703125" style="64" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="64"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="114"/>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>1</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>3</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
-        <v>4</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
-        <v>1</v>
-      </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
-        <v>2</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
-        <v>3</v>
-      </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
-        <v>4</v>
-      </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43">
-        <v>5</v>
-      </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47">
-        <v>1</v>
-      </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="48">
-        <v>2</v>
-      </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13">
-        <v>1</v>
-      </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="56">
-        <v>1</v>
-      </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56">
-        <v>2</v>
-      </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="57"/>
-    </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="58">
-        <v>3</v>
-      </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10647,15 +10726,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
